--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Assumption_Report.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Assumption_Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19065" windowHeight="12030" tabRatio="879"/>
@@ -34,10 +34,9 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Budgeting assumptions'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'Modeling methods'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'Rate scenarios'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'Models and changes'!$A$1:$M$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'Models and changes'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -57,7 +56,7 @@
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)</t>
   </si>
   <si>
-    <t>Printed on: 09/18/20 2:47:36 PM</t>
+    <t>Printed on: 10/20/20 4:57:40 AM</t>
   </si>
   <si>
     <t>Deposit Account Models</t>
@@ -781,478 +780,10 @@
     <t xml:space="preserve">e.    Scenario specification</t>
   </si>
   <si>
-    <t xml:space="preserve">Reinvestment  rates</t>
-  </si>
-  <si>
-    <t>Projected financial statements depend on the reinvestment rates assumed by the bank. The rates can be specified according to the bank’s chart of account.</t>
-  </si>
-  <si>
-    <t>Sector(Balance($000))</t>
-  </si>
-  <si>
-    <t>Rate(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margin
-(%)</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Fixed/Adj</t>
-  </si>
-  <si>
-    <t>Reset Freq</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>LTV(%)</t>
-  </si>
-  <si>
-    <t>Time value(%)</t>
-  </si>
-  <si>
-    <t>Option Spread(%)</t>
-  </si>
-  <si>
-    <t>Credit Spread(%)</t>
-  </si>
-  <si>
-    <t>Clean OAS(%)</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Total assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Cash &amp; Short Term</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Noninterest-bearing balances and currency and coin(1162.00)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>THC(Noninterest Bearing Cash Equivalent - 59087)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Interest-bearing balances(8738.00)</t>
-  </si>
-  <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>Adjustable</t>
-  </si>
-  <si>
-    <t>THC(FFS - 59089)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    U.S. Government agency obligations (exclude mortgage-backed securities)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Issued by U.S. Government agencies(2102.39)</t>
-  </si>
-  <si>
-    <t>THC(Agency Bond - 59092)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Issued by U.S. Government agencies(163.61)</t>
-  </si>
-  <si>
-    <t>THC(misc nonintbearing investment - 59090)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.(34171.41)</t>
-  </si>
-  <si>
-    <t>THC(Municipal Bond - 59094)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.(974.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mortgage-backed securities (MBS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Residential mortgage pass-through securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Guaranteed by GNMA(1181.17)</t>
-  </si>
-  <si>
-    <t>1Y LIBOR</t>
-  </si>
-  <si>
-    <t>HYB 3/1</t>
-  </si>
-  <si>
-    <t>THC(Adjustable MBS - 59096)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Guaranteed by GNMA(7557.04)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate MBS - 59095)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Guaranteed by GNMA(354.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Loans and lease financing receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans secured by real estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Construction, land development, and other land loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other construction loans and all land development and other land loans(177.70)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate Construction - 59138)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other construction loans and all land development and other land loans(50.49)</t>
-  </si>
-  <si>
-    <t>1Y TSY</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Construction - Treasury - 59139)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other construction loans and all land development and other land loans(3.89)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Construction - Libor - 59140)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other construction loans and all land development and other land loans(0.65)</t>
-  </si>
-  <si>
-    <t>Prime</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Construction - Prime - 59142)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Other construction loans and all land development and other land loans(0.28)</t>
-  </si>
-  <si>
-    <t>COFI</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Construction - COFI - 59141)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(280.35)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Multi Family - Treasury - 59145)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(10.24)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Multi Family - Prime - 59148)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(361.41)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate Multi Family 30YR - 59143)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Secured by 1-4 family residential properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Revolving, open-end loans secured by 1-4 family residential properties and extended under lines of credit(10.00)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate 2nd closed end - Prime - 59137)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Closed-end loans secured by 1-4 family residential properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(164.89)</t>
-  </si>
-  <si>
-    <t>6M LIBOR</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 6 mo Libor - 59113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(565.58)</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 1 yr Libor - 59114)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(792.61)</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 1 yr CMT - 59104)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(5435.26)</t>
-  </si>
-  <si>
-    <t>5Y TSY</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 5 yr CMT - 59110)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(653.66)</t>
-  </si>
-  <si>
-    <t>3Y TSY</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 3 yr CMT - 59109)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by first liens(3383.00)</t>
-  </si>
-  <si>
-    <t>HYB 7/1</t>
-  </si>
-  <si>
-    <t>THC(1-4 Fam 7/1 CMT - 59107)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by junior liens(6.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by junior liens(0.13)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate 2nd closed end - Treasury - 59134)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by junior liens(0.42)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate 2nd closed end - Libor - 59135)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          Secured by junior liens(3.75)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate 2nd closed end - 59133)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Secured by nonfarm nonresidential properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(447.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(16.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(522.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(53.82)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate Multi Family Balloon 7|23 - 59149)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(343.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(12.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(401.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(41.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(2.64)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Multi Family - Libor - 59146)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(2.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(9.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(66.37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Commercial and industrial loans(2904.30)</t>
-  </si>
-  <si>
-    <t>THC(Fixed Rate Commercial Loan - 59157)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Commercial and industrial loans(113.22)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Commercial Loan - Libor - 59159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Commercial and industrial loans(90.23)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Commercial Loan - Prime - 59161)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Commercial and industrial loans(423.25)</t>
-  </si>
-  <si>
-    <t>THC(Floating Rate Commercial Loan - Treasury - 59158)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Automobile loans(2556.00)</t>
-  </si>
-  <si>
-    <t>THC(Director New Auto Loan - 59185)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other consumer loans (includes single payment, installment, and all student loans)(1202.00)</t>
-  </si>
-  <si>
-    <t>THC(Personal Loan - 59199)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(110.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(88.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(414.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(2786.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Loans to nondepository financial institutions and other loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other loans(1.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other loans(1.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other loans(5.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Other loans(37.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Other assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Premises and fixed assets (including capitalized leases)(266.00)</t>
-  </si>
-  <si>
-    <t>THC(NonIntBearing Other Asset - 59204)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Others(716.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    LESS: Allowance for loan and lease losses(-974.00)</t>
-  </si>
-  <si>
-    <t>THC(Loan Loss Alloance - 59206)</t>
-  </si>
-  <si>
-    <t>Total liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Deposits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Retail CD(-3087.86)</t>
-  </si>
-  <si>
-    <t>THC(Retail CD 3mo - 59214)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Retail CD(-9175.05)</t>
-  </si>
-  <si>
-    <t>THC(Retail CD 1yr - 59212)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Retail CD(-7659.88)</t>
-  </si>
-  <si>
-    <t>THC(Retail CD 3yr - 59210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Retail CD(-2692.22)</t>
-  </si>
-  <si>
-    <t>THC(Retail CD 5yr - 59208)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    MMDAs(-1868.00)</t>
-  </si>
-  <si>
-    <t>Bank BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Passbook Accounts(-10015.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Transaction Accounts(-10991.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Noninterest-bearing Accounts(-17927.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Other liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Others(-280.00)</t>
-  </si>
-  <si>
-    <t>THC(NonIntBearing Other Liability - 59230)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Bank COA: the COA rate sheet set by the bank 
-    THC: The Generic Rate sheet prepared by THC. The related loan type is matched
-    Bank: The Generic Rate sheet prepared by the bank. The related loan type is matched.</t>
-  </si>
-  <si>
     <t>Disclaimer</t>
   </si>
   <si>
-    <t>Printed on: 09/18/20 2:47:37 PM</t>
+    <t>Printed on: 10/20/20 4:57:41 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Overview of the valuation models </t>
@@ -1705,6 +1236,9 @@
     <t>PRIME</t>
   </si>
   <si>
+    <t>COFI</t>
+  </si>
+  <si>
     <t>Federal funds rate</t>
   </si>
   <si>
@@ -1718,6 +1252,471 @@
   </si>
   <si>
     <t>Printed on:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinvestment  rates</t>
+  </si>
+  <si>
+    <t>Projected financial statements depend on the reinvestment rates assumed by the bank. The rates can be specified according to the bank’s chart of account.</t>
+  </si>
+  <si>
+    <t>Sector(Balance($000))</t>
+  </si>
+  <si>
+    <t>Rate(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin
+(%)</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Fixed/Adj</t>
+  </si>
+  <si>
+    <t>Reset Freq</t>
+  </si>
+  <si>
+    <t>FICO</t>
+  </si>
+  <si>
+    <t>LTV(%)</t>
+  </si>
+  <si>
+    <t>Time value(%)</t>
+  </si>
+  <si>
+    <t>Option Spread(%)</t>
+  </si>
+  <si>
+    <t>Credit Spread(%)</t>
+  </si>
+  <si>
+    <t>Clean OAS(%)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cash &amp; Short Term</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Noninterest-bearing balances and currency and coin(1162.00)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>THC(Noninterest Bearing Cash Equivalent - 59087)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Interest-bearing balances(8738.00)</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Adjustable</t>
+  </si>
+  <si>
+    <t>THC(FFS - 59089)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    U.S. Government agency obligations (exclude mortgage-backed securities)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Issued by U.S. Government agencies(2102.39)</t>
+  </si>
+  <si>
+    <t>THC(Agency Bond - 59092)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Issued by U.S. Government agencies(163.61)</t>
+  </si>
+  <si>
+    <t>THC(misc nonintbearing investment - 59090)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.(34171.41)</t>
+  </si>
+  <si>
+    <t>THC(Municipal Bond - 59094)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Securities issued by states and political subdivisions in the U.S.(974.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mortgage-backed securities (MBS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Residential mortgage pass-through securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Guaranteed by GNMA(1181.17)</t>
+  </si>
+  <si>
+    <t>1Y LIBOR</t>
+  </si>
+  <si>
+    <t>HYB 3/1</t>
+  </si>
+  <si>
+    <t>THC(Adjustable MBS - 59096)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Guaranteed by GNMA(7557.04)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate MBS - 59095)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Guaranteed by GNMA(354.80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Loans and lease financing receivables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans secured by real estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Construction, land development, and other land loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other construction loans and all land development and other land loans(177.70)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate Construction - 59138)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other construction loans and all land development and other land loans(50.49)</t>
+  </si>
+  <si>
+    <t>1Y TSY</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Construction - Treasury - 59139)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other construction loans and all land development and other land loans(3.89)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Construction - Libor - 59140)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other construction loans and all land development and other land loans(0.65)</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Construction - Prime - 59142)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Other construction loans and all land development and other land loans(0.28)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Construction - COFI - 59141)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(280.35)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Multi Family - Treasury - 59145)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(10.24)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Multi Family - Prime - 59148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Secured by farmland (including farm residential and other improvements)(361.41)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate Multi Family 30YR - 59143)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Secured by 1-4 family residential properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Revolving, open-end loans secured by 1-4 family residential properties and extended under lines of credit(10.00)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate 2nd closed end - Prime - 59137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Closed-end loans secured by 1-4 family residential properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(164.89)</t>
+  </si>
+  <si>
+    <t>6M LIBOR</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 6 mo Libor - 59113)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(565.58)</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 1 yr Libor - 59114)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(792.61)</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 1 yr CMT - 59104)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(5435.26)</t>
+  </si>
+  <si>
+    <t>5Y TSY</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 5 yr CMT - 59110)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(653.66)</t>
+  </si>
+  <si>
+    <t>3Y TSY</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 3 yr CMT - 59109)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by first liens(3383.00)</t>
+  </si>
+  <si>
+    <t>HYB 7/1</t>
+  </si>
+  <si>
+    <t>THC(1-4 Fam 7/1 CMT - 59107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by junior liens(6.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by junior liens(0.13)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate 2nd closed end - Treasury - 59134)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by junior liens(0.42)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate 2nd closed end - Libor - 59135)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Secured by junior liens(3.75)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate 2nd closed end - 59133)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Secured by nonfarm nonresidential properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(447.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(16.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(522.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by owner-occupied nonfarm nonresidential properties(53.82)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate Multi Family Balloon 7|23 - 59149)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(343.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(12.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(401.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Loans secured by other nonfarm nonresidential properties(41.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(2.64)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Multi Family - Libor - 59146)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(2.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(9.88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to finance agricultural production and other loans to farmers(66.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial and industrial loans(2904.30)</t>
+  </si>
+  <si>
+    <t>THC(Fixed Rate Commercial Loan - 59157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial and industrial loans(113.22)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Commercial Loan - Libor - 59159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial and industrial loans(90.23)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Commercial Loan - Prime - 59161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Commercial and industrial loans(423.25)</t>
+  </si>
+  <si>
+    <t>THC(Floating Rate Commercial Loan - Treasury - 59158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to individuals for household, family, and other personal expenditures (i.e., consumer loans) (includes purchased paper)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Automobile loans(2556.00)</t>
+  </si>
+  <si>
+    <t>THC(Director New Auto Loan - 59185)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other consumer loans (includes single payment, installment, and all student loans)(1202.00)</t>
+  </si>
+  <si>
+    <t>THC(Personal Loan - 59199)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(110.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(88.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(414.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Obligations (other than securities and leases) of states and political subdivisions in the U.S.(2786.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Loans to nondepository financial institutions and other loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other loans(1.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other loans(1.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other loans(5.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Other loans(37.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Premises and fixed assets (including capitalized leases)(266.00)</t>
+  </si>
+  <si>
+    <t>THC(NonIntBearing Other Asset - 59204)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Others(716.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LESS: Allowance for loan and lease losses(-974.00)</t>
+  </si>
+  <si>
+    <t>THC(Loan Loss Alloance - 59206)</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deposits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Retail CD(-3087.86)</t>
+  </si>
+  <si>
+    <t>THC(Retail CD 3mo - 59214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Retail CD(-9175.05)</t>
+  </si>
+  <si>
+    <t>THC(Retail CD 1yr - 59212)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Retail CD(-7659.88)</t>
+  </si>
+  <si>
+    <t>THC(Retail CD 3yr - 59210)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Retail CD(-2692.22)</t>
+  </si>
+  <si>
+    <t>THC(Retail CD 5yr - 59208)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MMDAs(-1868.00)</t>
+  </si>
+  <si>
+    <t>Bank BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Passbook Accounts(-10015.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Transaction Accounts(-10991.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Noninterest-bearing Accounts(-17927.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Other liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Others(-280.00)</t>
+  </si>
+  <si>
+    <t>THC(NonIntBearing Other Liability - 59230)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Bank COA: the COA rate sheet set by the bank 
+    THC: The Generic Rate sheet prepared by THC. The related loan type is matched
+    Bank: The Generic Rate sheet prepared by the bank. The related loan type is matched.</t>
   </si>
   <si>
     <t>Credit assumptions</t>
@@ -2103,7 +2102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -4030,17 +4029,17 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="174" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="0" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="25" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="23" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="0" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="24" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="37" applyFill="1" borderId="25" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="59" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
@@ -4437,7 +4436,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4466,6 +4475,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4474,10 +4485,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4562,17 +4575,27 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79496704"/>
-        <c:axId val="79507456"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="231265792"/>
+        <c:axId val="231267712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79496704"/>
+        <c:axId val="231265792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4598,9 +4621,11 @@
               <c:y val="0.9145787545787547"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -4632,15 +4657,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79507456"/>
+        <c:crossAx val="231267712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79507456"/>
+        <c:axId val="231267712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4680,9 +4706,11 @@
               <c:y val="0.40109101746897025"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4705,7 +4733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79496704"/>
+        <c:crossAx val="231265792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4719,6 +4747,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4757,7 +4786,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4786,6 +4825,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -4794,10 +4835,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="0"/>
@@ -4882,17 +4925,27 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79535488"/>
-        <c:axId val="79545856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="231677312"/>
+        <c:axId val="231708160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79535488"/>
+        <c:axId val="231677312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4918,9 +4971,11 @@
               <c:y val="0.90969474969474973"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
@@ -4952,15 +5007,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79545856"/>
+        <c:crossAx val="231708160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79545856"/>
+        <c:axId val="231708160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5000,9 +5056,11 @@
               <c:y val="0.37203118840914118"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5025,7 +5083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79535488"/>
+        <c:crossAx val="231677312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5039,6 +5097,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5077,13 +5136,24 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5479,16 +5549,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80945920"/>
-        <c:axId val="80947840"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230881152"/>
+        <c:axId val="231182336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80945920"/>
+        <c:axId val="230881152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5518,20 +5597,23 @@
               <c:y val="0.92076455148988878"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80947840"/>
+        <c:crossAx val="231182336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="60"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80947840"/>
+        <c:axId val="231182336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5564,17 +5646,21 @@
               <c:y val="0.34622695692450273"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80945920"/>
+        <c:crossAx val="230881152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5589,6 +5675,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5618,7 +5706,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5654,7 +5742,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FBC450-9F79-4EF8-B62B-A123B7A640F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5712,6 +5800,52 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>2181225</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11265" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11265"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5730,7 +5864,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{285B5163-0187-4EEC-980D-9FB4FB5791D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +6332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
@@ -6206,7 +6340,7 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="5.625" customWidth="1" style="227"/>
     <col min="3" max="16384" width="7.75" customWidth="1" style="227"/>
@@ -6633,7 +6767,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-047Thomas Ho Company Ltd.
@@ -6644,7 +6778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
@@ -6652,7 +6786,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.125" customWidth="1" style="233"/>
@@ -6671,7 +6805,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="235" customFormat="1">
       <c r="A1" s="298" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="B1" s="298"/>
       <c r="C1" s="298"/>
@@ -6690,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="233" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -7008,7 +7142,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
@@ -7016,7 +7150,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.125" customWidth="1" style="233"/>
@@ -7031,7 +7165,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="235" customFormat="1">
       <c r="A1" s="298" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="B1" s="298"/>
       <c r="C1" s="298"/>
@@ -7047,10 +7181,10 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="236" t="s">
-        <v>540</v>
+        <v>386</v>
       </c>
       <c r="L2" s="233" t="s">
-        <v>541</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -7058,7 +7192,7 @@
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="240" t="s">
-        <v>461</v>
+        <v>306</v>
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
@@ -7073,7 +7207,7 @@
     </row>
     <row r="5" ht="30.75" customHeight="1">
       <c r="A5" s="296" t="s">
-        <v>462</v>
+        <v>307</v>
       </c>
       <c r="B5" s="296"/>
       <c r="C5" s="296"/>
@@ -7089,10 +7223,10 @@
     </row>
     <row r="7">
       <c r="A7" s="276" t="s">
-        <v>463</v>
+        <v>308</v>
       </c>
       <c r="B7" s="277" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="C7" s="271"/>
       <c r="D7" s="270"/>
@@ -7107,74 +7241,74 @@
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="B8" s="275" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="B9" s="275" t="s">
-        <v>468</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="244" t="s">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="B10" s="275" t="s">
-        <v>470</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="244" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="B11" s="275" t="s">
-        <v>472</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>473</v>
+        <v>318</v>
       </c>
       <c r="B12" s="275" t="s">
-        <v>474</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>475</v>
+        <v>320</v>
       </c>
       <c r="B13" s="275" t="s">
-        <v>476</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>477</v>
+        <v>322</v>
       </c>
       <c r="B14" s="275" t="s">
-        <v>478</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>479</v>
+        <v>324</v>
       </c>
       <c r="B15" s="275" t="s">
-        <v>480</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="244" t="s">
-        <v>481</v>
+        <v>326</v>
       </c>
       <c r="B16" s="275" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17">
@@ -7182,47 +7316,47 @@
         <v>70</v>
       </c>
       <c r="B17" s="275" t="s">
-        <v>483</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>484</v>
+        <v>329</v>
       </c>
       <c r="B18" s="275" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="244" t="s">
-        <v>486</v>
+        <v>331</v>
       </c>
       <c r="B19" s="275" t="s">
-        <v>487</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>488</v>
+        <v>333</v>
       </c>
       <c r="B20" s="275" t="s">
-        <v>489</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="244" t="s">
-        <v>490</v>
+        <v>335</v>
       </c>
       <c r="B21" s="275" t="s">
-        <v>491</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="244" t="s">
-        <v>492</v>
+        <v>337</v>
       </c>
       <c r="B22" s="275" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7240,7 +7374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:Z498"/>
   <sheetViews>
@@ -7248,7 +7382,7 @@
       <selection sqref="A1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="5.125" customWidth="1" style="233"/>
@@ -7275,7 +7409,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="235" customFormat="1">
       <c r="A1" s="298" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="B1" s="298"/>
       <c r="C1" s="298"/>
@@ -7309,7 +7443,7 @@
       </c>
       <c r="M2" s="233"/>
       <c r="Z2" s="233" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -7317,7 +7451,7 @@
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="240" t="s">
-        <v>461</v>
+        <v>306</v>
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
@@ -7332,7 +7466,7 @@
     </row>
     <row r="5" ht="17.25" customHeight="1">
       <c r="A5" s="291" t="s">
-        <v>462</v>
+        <v>307</v>
       </c>
       <c r="B5" s="290"/>
       <c r="C5" s="290"/>
@@ -7362,12 +7496,12 @@
     </row>
     <row r="6">
       <c r="A6" s="276" t="s">
-        <v>463</v>
+        <v>308</v>
       </c>
       <c r="B6" s="270"/>
       <c r="C6" s="271"/>
       <c r="D6" s="277" t="s">
-        <v>464</v>
+        <v>309</v>
       </c>
       <c r="E6" s="271"/>
       <c r="F6" s="269"/>
@@ -7394,82 +7528,82 @@
     </row>
     <row r="7">
       <c r="A7" s="285" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="D7" s="275" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
       <c r="E7" s="238"/>
     </row>
     <row r="8">
       <c r="A8" s="285" t="s">
-        <v>467</v>
+        <v>312</v>
       </c>
       <c r="D8" s="275" t="s">
-        <v>468</v>
+        <v>313</v>
       </c>
       <c r="E8" s="238"/>
     </row>
     <row r="9">
       <c r="A9" s="285" t="s">
-        <v>469</v>
+        <v>314</v>
       </c>
       <c r="D9" s="275" t="s">
-        <v>470</v>
+        <v>315</v>
       </c>
       <c r="E9" s="238"/>
     </row>
     <row r="10">
       <c r="A10" s="285" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="D10" s="275" t="s">
-        <v>472</v>
+        <v>317</v>
       </c>
       <c r="E10" s="238"/>
     </row>
     <row r="11">
       <c r="A11" s="285" t="s">
-        <v>473</v>
+        <v>318</v>
       </c>
       <c r="D11" s="275" t="s">
-        <v>474</v>
+        <v>319</v>
       </c>
       <c r="E11" s="238"/>
     </row>
     <row r="12">
       <c r="A12" s="285" t="s">
-        <v>475</v>
+        <v>320</v>
       </c>
       <c r="D12" s="275" t="s">
-        <v>476</v>
+        <v>321</v>
       </c>
       <c r="E12" s="238"/>
     </row>
     <row r="13">
       <c r="A13" s="285" t="s">
-        <v>477</v>
+        <v>322</v>
       </c>
       <c r="D13" s="275" t="s">
-        <v>478</v>
+        <v>323</v>
       </c>
       <c r="E13" s="238"/>
     </row>
     <row r="14">
       <c r="A14" s="285" t="s">
-        <v>479</v>
+        <v>324</v>
       </c>
       <c r="D14" s="275" t="s">
-        <v>480</v>
+        <v>325</v>
       </c>
       <c r="E14" s="238"/>
     </row>
     <row r="15">
       <c r="A15" s="285" t="s">
-        <v>481</v>
+        <v>326</v>
       </c>
       <c r="D15" s="275" t="s">
-        <v>482</v>
+        <v>327</v>
       </c>
       <c r="E15" s="238"/>
     </row>
@@ -7478,52 +7612,52 @@
         <v>70</v>
       </c>
       <c r="D16" s="275" t="s">
-        <v>483</v>
+        <v>328</v>
       </c>
       <c r="E16" s="238"/>
     </row>
     <row r="17">
       <c r="A17" s="285" t="s">
-        <v>484</v>
+        <v>329</v>
       </c>
       <c r="D17" s="275" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
       <c r="E17" s="238"/>
     </row>
     <row r="18">
       <c r="A18" s="285" t="s">
-        <v>486</v>
+        <v>331</v>
       </c>
       <c r="D18" s="275" t="s">
-        <v>487</v>
+        <v>332</v>
       </c>
       <c r="E18" s="238"/>
     </row>
     <row r="19">
       <c r="A19" s="285" t="s">
-        <v>488</v>
+        <v>333</v>
       </c>
       <c r="D19" s="275" t="s">
-        <v>489</v>
+        <v>334</v>
       </c>
       <c r="E19" s="238"/>
     </row>
     <row r="20">
       <c r="A20" s="285" t="s">
-        <v>490</v>
+        <v>335</v>
       </c>
       <c r="D20" s="275" t="s">
-        <v>491</v>
+        <v>336</v>
       </c>
       <c r="E20" s="238"/>
     </row>
     <row r="21">
       <c r="A21" s="285" t="s">
-        <v>492</v>
+        <v>337</v>
       </c>
       <c r="D21" s="275" t="s">
-        <v>493</v>
+        <v>338</v>
       </c>
       <c r="E21" s="238"/>
     </row>
@@ -7535,7 +7669,7 @@
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="240" t="s">
-        <v>494</v>
+        <v>339</v>
       </c>
       <c r="B24" s="241"/>
       <c r="C24" s="241"/>
@@ -7550,7 +7684,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="296" t="s">
-        <v>495</v>
+        <v>340</v>
       </c>
       <c r="B25" s="296"/>
       <c r="C25" s="296"/>
@@ -7624,7 +7758,7 @@
     </row>
     <row r="29">
       <c r="B29" s="275" t="s">
-        <v>496</v>
+        <v>341</v>
       </c>
       <c r="C29" s="314">
         <v>0.11535407030363713</v>
@@ -7671,7 +7805,7 @@
     </row>
     <row r="30">
       <c r="B30" s="275" t="s">
-        <v>497</v>
+        <v>342</v>
       </c>
       <c r="C30" s="314">
         <v>0.0926909872893368</v>
@@ -7718,7 +7852,7 @@
     </row>
     <row r="31">
       <c r="B31" s="275" t="s">
-        <v>498</v>
+        <v>343</v>
       </c>
       <c r="C31" s="314">
         <v>3.1153540703967</v>
@@ -7765,7 +7899,7 @@
     </row>
     <row r="32">
       <c r="B32" s="275" t="s">
-        <v>499</v>
+        <v>344</v>
       </c>
       <c r="C32" s="314">
         <v>3.1153540703967</v>
@@ -7812,7 +7946,7 @@
     </row>
     <row r="33">
       <c r="B33" s="275" t="s">
-        <v>500</v>
+        <v>345</v>
       </c>
       <c r="C33" s="314">
         <v>0.1153840702785514</v>
@@ -7857,44 +7991,45 @@
         <v>4.4854664063800342</v>
       </c>
     </row>
+    <row r="45"/>
     <row r="46">
       <c r="A46" s="267" t="s">
-        <v>501</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="244" t="s">
-        <v>502</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="244" t="s">
-        <v>503</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="244" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="244" t="s">
-        <v>505</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="244" t="s">
-        <v>506</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="267" t="s">
-        <v>507</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" ht="15">
       <c r="A55" s="327" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="B55" s="328">
         <v>44012</v>
@@ -7974,12 +8109,12 @@
     </row>
     <row r="56">
       <c r="A56" s="329" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B57" s="331">
         <v>16.225000144913793</v>
@@ -8059,7 +8194,7 @@
     </row>
     <row r="58">
       <c r="A58" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B58" s="331">
         <v>16.225000144913793</v>
@@ -8139,7 +8274,7 @@
     </row>
     <row r="59">
       <c r="A59" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B59" s="331">
         <v>16.225000144913793</v>
@@ -8219,7 +8354,7 @@
     </row>
     <row r="60">
       <c r="A60" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B60" s="331">
         <v>16.225000144913793</v>
@@ -8299,7 +8434,7 @@
     </row>
     <row r="61">
       <c r="A61" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B61" s="331">
         <v>16.225000144913793</v>
@@ -8379,7 +8514,7 @@
     </row>
     <row r="62">
       <c r="A62" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B62" s="331">
         <v>16.225000144913793</v>
@@ -8459,7 +8594,7 @@
     </row>
     <row r="63">
       <c r="A63" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B63" s="331">
         <v>16.225000144913793</v>
@@ -8539,7 +8674,7 @@
     </row>
     <row r="64">
       <c r="A64" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B64" s="331">
         <v>16.225000144913793</v>
@@ -8619,7 +8754,7 @@
     </row>
     <row r="65">
       <c r="A65" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B65" s="331">
         <v>16.225000144913793</v>
@@ -8699,12 +8834,12 @@
     </row>
     <row r="66">
       <c r="A66" s="329" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B67" s="331">
         <v>30.199999455362558</v>
@@ -8784,7 +8919,7 @@
     </row>
     <row r="68">
       <c r="A68" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B68" s="331">
         <v>30.199999455362558</v>
@@ -8864,7 +8999,7 @@
     </row>
     <row r="69">
       <c r="A69" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B69" s="331">
         <v>30.199999455362558</v>
@@ -8944,7 +9079,7 @@
     </row>
     <row r="70">
       <c r="A70" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B70" s="331">
         <v>30.199999455362558</v>
@@ -9024,7 +9159,7 @@
     </row>
     <row r="71">
       <c r="A71" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B71" s="331">
         <v>30.199999455362558</v>
@@ -9104,7 +9239,7 @@
     </row>
     <row r="72">
       <c r="A72" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B72" s="331">
         <v>30.199999455362558</v>
@@ -9184,7 +9319,7 @@
     </row>
     <row r="73">
       <c r="A73" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B73" s="331">
         <v>30.199999455362558</v>
@@ -9264,7 +9399,7 @@
     </row>
     <row r="74">
       <c r="A74" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B74" s="331">
         <v>30.199999455362558</v>
@@ -9344,7 +9479,7 @@
     </row>
     <row r="75">
       <c r="A75" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B75" s="331">
         <v>30.199999455362558</v>
@@ -9424,12 +9559,12 @@
     </row>
     <row r="76">
       <c r="A76" s="329" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B77" s="331">
         <v>36.925000604242086</v>
@@ -9509,7 +9644,7 @@
     </row>
     <row r="78">
       <c r="A78" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B78" s="331">
         <v>36.925000604242086</v>
@@ -9589,7 +9724,7 @@
     </row>
     <row r="79">
       <c r="A79" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B79" s="331">
         <v>36.925000604242086</v>
@@ -9669,7 +9804,7 @@
     </row>
     <row r="80">
       <c r="A80" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B80" s="331">
         <v>36.925000604242086</v>
@@ -9749,7 +9884,7 @@
     </row>
     <row r="81">
       <c r="A81" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B81" s="331">
         <v>36.925000604242086</v>
@@ -9829,7 +9964,7 @@
     </row>
     <row r="82">
       <c r="A82" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B82" s="331">
         <v>36.925000604242086</v>
@@ -9909,7 +10044,7 @@
     </row>
     <row r="83">
       <c r="A83" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B83" s="331">
         <v>36.925000604242086</v>
@@ -9989,7 +10124,7 @@
     </row>
     <row r="84">
       <c r="A84" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B84" s="331">
         <v>36.925000604242086</v>
@@ -10069,7 +10204,7 @@
     </row>
     <row r="85">
       <c r="A85" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B85" s="331">
         <v>36.925000604242086</v>
@@ -10149,12 +10284,12 @@
     </row>
     <row r="86">
       <c r="A86" s="329" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B87" s="331">
         <v>54.574999958276749</v>
@@ -10234,7 +10369,7 @@
     </row>
     <row r="88">
       <c r="A88" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B88" s="331">
         <v>54.574999958276749</v>
@@ -10314,7 +10449,7 @@
     </row>
     <row r="89">
       <c r="A89" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B89" s="331">
         <v>54.574999958276749</v>
@@ -10394,7 +10529,7 @@
     </row>
     <row r="90">
       <c r="A90" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B90" s="331">
         <v>54.574999958276749</v>
@@ -10474,7 +10609,7 @@
     </row>
     <row r="91">
       <c r="A91" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B91" s="331">
         <v>54.574999958276749</v>
@@ -10554,7 +10689,7 @@
     </row>
     <row r="92">
       <c r="A92" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B92" s="331">
         <v>54.574999958276749</v>
@@ -10634,7 +10769,7 @@
     </row>
     <row r="93">
       <c r="A93" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B93" s="331">
         <v>54.574999958276749</v>
@@ -10714,7 +10849,7 @@
     </row>
     <row r="94">
       <c r="A94" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B94" s="331">
         <v>54.574999958276749</v>
@@ -10794,7 +10929,7 @@
     </row>
     <row r="95">
       <c r="A95" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B95" s="331">
         <v>54.574999958276749</v>
@@ -10874,12 +11009,12 @@
     </row>
     <row r="96">
       <c r="A96" s="329" t="s">
-        <v>522</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B97" s="331">
         <v>29.299999587237835</v>
@@ -10959,7 +11094,7 @@
     </row>
     <row r="98">
       <c r="A98" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B98" s="331">
         <v>29.299999587237835</v>
@@ -11039,7 +11174,7 @@
     </row>
     <row r="99">
       <c r="A99" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B99" s="331">
         <v>29.299999587237835</v>
@@ -11119,7 +11254,7 @@
     </row>
     <row r="100">
       <c r="A100" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B100" s="331">
         <v>29.299999587237835</v>
@@ -11199,7 +11334,7 @@
     </row>
     <row r="101">
       <c r="A101" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B101" s="331">
         <v>29.299999587237835</v>
@@ -11279,7 +11414,7 @@
     </row>
     <row r="102">
       <c r="A102" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B102" s="331">
         <v>29.299999587237835</v>
@@ -11359,7 +11494,7 @@
     </row>
     <row r="103">
       <c r="A103" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B103" s="331">
         <v>29.299999587237835</v>
@@ -11439,7 +11574,7 @@
     </row>
     <row r="104">
       <c r="A104" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B104" s="331">
         <v>29.299999587237835</v>
@@ -11519,7 +11654,7 @@
     </row>
     <row r="105">
       <c r="A105" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B105" s="331">
         <v>29.299999587237835</v>
@@ -11599,12 +11734,12 @@
     </row>
     <row r="106">
       <c r="A106" s="329" t="s">
-        <v>523</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B107" s="331">
         <v>26.449998840689659</v>
@@ -11684,7 +11819,7 @@
     </row>
     <row r="108">
       <c r="A108" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B108" s="331">
         <v>26.449998840689659</v>
@@ -11764,7 +11899,7 @@
     </row>
     <row r="109">
       <c r="A109" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B109" s="331">
         <v>26.449998840689659</v>
@@ -11844,7 +11979,7 @@
     </row>
     <row r="110">
       <c r="A110" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B110" s="331">
         <v>26.449998840689659</v>
@@ -11924,7 +12059,7 @@
     </row>
     <row r="111">
       <c r="A111" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B111" s="331">
         <v>26.449998840689659</v>
@@ -12004,7 +12139,7 @@
     </row>
     <row r="112">
       <c r="A112" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B112" s="331">
         <v>26.449998840689659</v>
@@ -12084,7 +12219,7 @@
     </row>
     <row r="113">
       <c r="A113" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B113" s="331">
         <v>26.449998840689659</v>
@@ -12164,7 +12299,7 @@
     </row>
     <row r="114">
       <c r="A114" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B114" s="331">
         <v>26.449998840689659</v>
@@ -12244,7 +12379,7 @@
     </row>
     <row r="115">
       <c r="A115" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B115" s="331">
         <v>26.449998840689659</v>
@@ -12324,12 +12459,12 @@
     </row>
     <row r="116">
       <c r="A116" s="329" t="s">
-        <v>524</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B117" s="331">
         <v>15.999999595806003</v>
@@ -12409,7 +12544,7 @@
     </row>
     <row r="118">
       <c r="A118" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B118" s="331">
         <v>15.999999595806003</v>
@@ -12489,7 +12624,7 @@
     </row>
     <row r="119">
       <c r="A119" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B119" s="331">
         <v>15.999999595806003</v>
@@ -12569,7 +12704,7 @@
     </row>
     <row r="120">
       <c r="A120" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B120" s="331">
         <v>15.999999595806003</v>
@@ -12649,7 +12784,7 @@
     </row>
     <row r="121">
       <c r="A121" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B121" s="331">
         <v>15.999999595806003</v>
@@ -12729,7 +12864,7 @@
     </row>
     <row r="122">
       <c r="A122" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B122" s="331">
         <v>15.999999595806003</v>
@@ -12809,7 +12944,7 @@
     </row>
     <row r="123">
       <c r="A123" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B123" s="331">
         <v>15.999999595806003</v>
@@ -12889,7 +13024,7 @@
     </row>
     <row r="124">
       <c r="A124" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B124" s="331">
         <v>15.999999595806003</v>
@@ -12969,7 +13104,7 @@
     </row>
     <row r="125">
       <c r="A125" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B125" s="331">
         <v>15.999999595806003</v>
@@ -13049,12 +13184,12 @@
     </row>
     <row r="126">
       <c r="A126" s="329" t="s">
-        <v>525</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B127" s="331">
         <v>17.999999690800905</v>
@@ -13134,7 +13269,7 @@
     </row>
     <row r="128">
       <c r="A128" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B128" s="331">
         <v>17.999999690800905</v>
@@ -13214,7 +13349,7 @@
     </row>
     <row r="129">
       <c r="A129" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B129" s="331">
         <v>17.999999690800905</v>
@@ -13294,7 +13429,7 @@
     </row>
     <row r="130">
       <c r="A130" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B130" s="331">
         <v>17.999999690800905</v>
@@ -13374,7 +13509,7 @@
     </row>
     <row r="131">
       <c r="A131" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B131" s="331">
         <v>17.999999690800905</v>
@@ -13454,7 +13589,7 @@
     </row>
     <row r="132">
       <c r="A132" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B132" s="331">
         <v>17.999999690800905</v>
@@ -13534,7 +13669,7 @@
     </row>
     <row r="133">
       <c r="A133" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B133" s="331">
         <v>17.999999690800905</v>
@@ -13614,7 +13749,7 @@
     </row>
     <row r="134">
       <c r="A134" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B134" s="331">
         <v>17.999999690800905</v>
@@ -13694,7 +13829,7 @@
     </row>
     <row r="135">
       <c r="A135" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B135" s="331">
         <v>17.999999690800905</v>
@@ -13774,12 +13909,12 @@
     </row>
     <row r="136">
       <c r="A136" s="329" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B137" s="331">
         <v>15.999999595806003</v>
@@ -13859,7 +13994,7 @@
     </row>
     <row r="138">
       <c r="A138" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B138" s="331">
         <v>15.999999595806003</v>
@@ -13939,7 +14074,7 @@
     </row>
     <row r="139">
       <c r="A139" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B139" s="331">
         <v>15.999999595806003</v>
@@ -14019,7 +14154,7 @@
     </row>
     <row r="140">
       <c r="A140" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B140" s="331">
         <v>15.999999595806003</v>
@@ -14099,7 +14234,7 @@
     </row>
     <row r="141">
       <c r="A141" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B141" s="331">
         <v>15.999999595806003</v>
@@ -14179,7 +14314,7 @@
     </row>
     <row r="142">
       <c r="A142" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B142" s="331">
         <v>15.999999595806003</v>
@@ -14259,7 +14394,7 @@
     </row>
     <row r="143">
       <c r="A143" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B143" s="331">
         <v>15.999999595806003</v>
@@ -14339,7 +14474,7 @@
     </row>
     <row r="144">
       <c r="A144" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B144" s="331">
         <v>15.999999595806003</v>
@@ -14419,7 +14554,7 @@
     </row>
     <row r="145">
       <c r="A145" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B145" s="331">
         <v>15.999999595806003</v>
@@ -14499,12 +14634,12 @@
     </row>
     <row r="146">
       <c r="A146" s="329" t="s">
-        <v>527</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B147" s="331">
         <v>17.999999690800905</v>
@@ -14584,7 +14719,7 @@
     </row>
     <row r="148">
       <c r="A148" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B148" s="331">
         <v>17.999999690800905</v>
@@ -14664,7 +14799,7 @@
     </row>
     <row r="149">
       <c r="A149" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B149" s="331">
         <v>17.999999690800905</v>
@@ -14744,7 +14879,7 @@
     </row>
     <row r="150">
       <c r="A150" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B150" s="331">
         <v>17.999999690800905</v>
@@ -14824,7 +14959,7 @@
     </row>
     <row r="151">
       <c r="A151" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B151" s="331">
         <v>17.999999690800905</v>
@@ -14904,7 +15039,7 @@
     </row>
     <row r="152">
       <c r="A152" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B152" s="331">
         <v>17.999999690800905</v>
@@ -14984,7 +15119,7 @@
     </row>
     <row r="153">
       <c r="A153" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B153" s="331">
         <v>17.999999690800905</v>
@@ -15064,7 +15199,7 @@
     </row>
     <row r="154">
       <c r="A154" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B154" s="331">
         <v>17.999999690800905</v>
@@ -15144,7 +15279,7 @@
     </row>
     <row r="155">
       <c r="A155" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B155" s="331">
         <v>17.999999690800905</v>
@@ -15224,12 +15359,12 @@
     </row>
     <row r="156">
       <c r="A156" s="329" t="s">
-        <v>528</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B157" s="331">
         <v>28.99999963119626</v>
@@ -15309,7 +15444,7 @@
     </row>
     <row r="158">
       <c r="A158" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B158" s="331">
         <v>28.99999963119626</v>
@@ -15389,7 +15524,7 @@
     </row>
     <row r="159">
       <c r="A159" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B159" s="331">
         <v>28.99999963119626</v>
@@ -15469,7 +15604,7 @@
     </row>
     <row r="160">
       <c r="A160" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B160" s="331">
         <v>28.99999963119626</v>
@@ -15549,7 +15684,7 @@
     </row>
     <row r="161">
       <c r="A161" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B161" s="331">
         <v>28.99999963119626</v>
@@ -15629,7 +15764,7 @@
     </row>
     <row r="162">
       <c r="A162" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B162" s="331">
         <v>28.99999963119626</v>
@@ -15709,7 +15844,7 @@
     </row>
     <row r="163">
       <c r="A163" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B163" s="331">
         <v>28.99999963119626</v>
@@ -15789,7 +15924,7 @@
     </row>
     <row r="164">
       <c r="A164" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B164" s="331">
         <v>28.99999963119626</v>
@@ -15869,7 +16004,7 @@
     </row>
     <row r="165">
       <c r="A165" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B165" s="331">
         <v>28.99999963119626</v>
@@ -15949,12 +16084,12 @@
     </row>
     <row r="166">
       <c r="A166" s="329" t="s">
-        <v>529</v>
+        <v>374</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B167" s="331">
         <v>49.000000581145287</v>
@@ -16034,7 +16169,7 @@
     </row>
     <row r="168">
       <c r="A168" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B168" s="331">
         <v>49.000000581145287</v>
@@ -16114,7 +16249,7 @@
     </row>
     <row r="169">
       <c r="A169" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B169" s="331">
         <v>49.000000581145287</v>
@@ -16194,7 +16329,7 @@
     </row>
     <row r="170">
       <c r="A170" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B170" s="331">
         <v>49.000000581145287</v>
@@ -16274,7 +16409,7 @@
     </row>
     <row r="171">
       <c r="A171" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B171" s="331">
         <v>49.000000581145287</v>
@@ -16354,7 +16489,7 @@
     </row>
     <row r="172">
       <c r="A172" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B172" s="331">
         <v>49.000000581145287</v>
@@ -16434,7 +16569,7 @@
     </row>
     <row r="173">
       <c r="A173" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B173" s="331">
         <v>49.000000581145287</v>
@@ -16514,7 +16649,7 @@
     </row>
     <row r="174">
       <c r="A174" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B174" s="331">
         <v>49.000000581145287</v>
@@ -16594,7 +16729,7 @@
     </row>
     <row r="175">
       <c r="A175" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B175" s="331">
         <v>49.000000581145287</v>
@@ -16674,12 +16809,12 @@
     </row>
     <row r="176">
       <c r="A176" s="329" t="s">
-        <v>530</v>
+        <v>375</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B177" s="331">
         <v>65.999999642372131</v>
@@ -16759,7 +16894,7 @@
     </row>
     <row r="178">
       <c r="A178" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B178" s="331">
         <v>65.999999642372131</v>
@@ -16839,7 +16974,7 @@
     </row>
     <row r="179">
       <c r="A179" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B179" s="331">
         <v>65.999999642372131</v>
@@ -16919,7 +17054,7 @@
     </row>
     <row r="180">
       <c r="A180" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B180" s="331">
         <v>65.999999642372131</v>
@@ -16999,7 +17134,7 @@
     </row>
     <row r="181">
       <c r="A181" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B181" s="331">
         <v>65.999999642372131</v>
@@ -17079,7 +17214,7 @@
     </row>
     <row r="182">
       <c r="A182" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B182" s="331">
         <v>65.999999642372131</v>
@@ -17159,7 +17294,7 @@
     </row>
     <row r="183">
       <c r="A183" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B183" s="331">
         <v>65.999999642372131</v>
@@ -17239,7 +17374,7 @@
     </row>
     <row r="184">
       <c r="A184" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B184" s="331">
         <v>65.999999642372131</v>
@@ -17319,7 +17454,7 @@
     </row>
     <row r="185">
       <c r="A185" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B185" s="331">
         <v>65.999999642372131</v>
@@ -17399,12 +17534,12 @@
     </row>
     <row r="186">
       <c r="A186" s="329" t="s">
-        <v>531</v>
+        <v>376</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B187" s="331">
         <v>38.000000640749931</v>
@@ -17484,7 +17619,7 @@
     </row>
     <row r="188">
       <c r="A188" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B188" s="331">
         <v>38.000000640749931</v>
@@ -17564,7 +17699,7 @@
     </row>
     <row r="189">
       <c r="A189" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B189" s="331">
         <v>38.000000640749931</v>
@@ -17644,7 +17779,7 @@
     </row>
     <row r="190">
       <c r="A190" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B190" s="331">
         <v>38.000000640749931</v>
@@ -17724,7 +17859,7 @@
     </row>
     <row r="191">
       <c r="A191" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B191" s="331">
         <v>38.000000640749931</v>
@@ -17804,7 +17939,7 @@
     </row>
     <row r="192">
       <c r="A192" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B192" s="331">
         <v>38.000000640749931</v>
@@ -17884,7 +18019,7 @@
     </row>
     <row r="193">
       <c r="A193" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B193" s="331">
         <v>38.000000640749931</v>
@@ -17964,7 +18099,7 @@
     </row>
     <row r="194">
       <c r="A194" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B194" s="331">
         <v>38.000000640749931</v>
@@ -18044,7 +18179,7 @@
     </row>
     <row r="195">
       <c r="A195" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B195" s="331">
         <v>38.000000640749931</v>
@@ -18124,12 +18259,12 @@
     </row>
     <row r="196">
       <c r="A196" s="329" t="s">
-        <v>532</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B197" s="331">
         <v>57.999999262392521</v>
@@ -18209,7 +18344,7 @@
     </row>
     <row r="198">
       <c r="A198" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B198" s="331">
         <v>57.999999262392521</v>
@@ -18289,7 +18424,7 @@
     </row>
     <row r="199">
       <c r="A199" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B199" s="331">
         <v>57.999999262392521</v>
@@ -18369,7 +18504,7 @@
     </row>
     <row r="200">
       <c r="A200" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B200" s="331">
         <v>57.999999262392521</v>
@@ -18449,7 +18584,7 @@
     </row>
     <row r="201">
       <c r="A201" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B201" s="331">
         <v>57.999999262392521</v>
@@ -18529,7 +18664,7 @@
     </row>
     <row r="202">
       <c r="A202" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B202" s="331">
         <v>57.999999262392521</v>
@@ -18609,7 +18744,7 @@
     </row>
     <row r="203">
       <c r="A203" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B203" s="331">
         <v>57.999999262392521</v>
@@ -18689,7 +18824,7 @@
     </row>
     <row r="204">
       <c r="A204" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B204" s="331">
         <v>57.999999262392521</v>
@@ -18769,7 +18904,7 @@
     </row>
     <row r="205">
       <c r="A205" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B205" s="331">
         <v>57.999999262392521</v>
@@ -18849,12 +18984,12 @@
     </row>
     <row r="206">
       <c r="A206" s="329" t="s">
-        <v>533</v>
+        <v>378</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B207" s="331">
         <v>63.99999838322401</v>
@@ -18934,7 +19069,7 @@
     </row>
     <row r="208">
       <c r="A208" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B208" s="331">
         <v>63.99999838322401</v>
@@ -19014,7 +19149,7 @@
     </row>
     <row r="209">
       <c r="A209" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B209" s="331">
         <v>63.99999838322401</v>
@@ -19094,7 +19229,7 @@
     </row>
     <row r="210">
       <c r="A210" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B210" s="331">
         <v>63.99999838322401</v>
@@ -19174,7 +19309,7 @@
     </row>
     <row r="211">
       <c r="A211" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B211" s="331">
         <v>63.99999838322401</v>
@@ -19254,7 +19389,7 @@
     </row>
     <row r="212">
       <c r="A212" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B212" s="331">
         <v>63.99999838322401</v>
@@ -19334,7 +19469,7 @@
     </row>
     <row r="213">
       <c r="A213" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B213" s="331">
         <v>63.99999838322401</v>
@@ -19414,7 +19549,7 @@
     </row>
     <row r="214">
       <c r="A214" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B214" s="331">
         <v>63.99999838322401</v>
@@ -19494,7 +19629,7 @@
     </row>
     <row r="215">
       <c r="A215" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B215" s="331">
         <v>63.99999838322401</v>
@@ -19574,12 +19709,12 @@
     </row>
     <row r="216">
       <c r="A216" s="329" t="s">
-        <v>534</v>
+        <v>379</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B217" s="331">
         <v>74.499999172985554</v>
@@ -19659,7 +19794,7 @@
     </row>
     <row r="218">
       <c r="A218" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B218" s="331">
         <v>74.499999172985554</v>
@@ -19739,7 +19874,7 @@
     </row>
     <row r="219">
       <c r="A219" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B219" s="331">
         <v>74.499999172985554</v>
@@ -19819,7 +19954,7 @@
     </row>
     <row r="220">
       <c r="A220" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B220" s="331">
         <v>74.499999172985554</v>
@@ -19899,7 +20034,7 @@
     </row>
     <row r="221">
       <c r="A221" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B221" s="331">
         <v>74.499999172985554</v>
@@ -19979,7 +20114,7 @@
     </row>
     <row r="222">
       <c r="A222" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B222" s="331">
         <v>74.499999172985554</v>
@@ -20059,7 +20194,7 @@
     </row>
     <row r="223">
       <c r="A223" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B223" s="331">
         <v>74.499999172985554</v>
@@ -20139,7 +20274,7 @@
     </row>
     <row r="224">
       <c r="A224" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B224" s="331">
         <v>74.499999172985554</v>
@@ -20219,7 +20354,7 @@
     </row>
     <row r="225">
       <c r="A225" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B225" s="331">
         <v>74.499999172985554</v>
@@ -20299,12 +20434,12 @@
     </row>
     <row r="226">
       <c r="A226" s="329" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B227" s="331">
         <v>85.00000461935997</v>
@@ -20384,7 +20519,7 @@
     </row>
     <row r="228">
       <c r="A228" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B228" s="331">
         <v>85.00000461935997</v>
@@ -20464,7 +20599,7 @@
     </row>
     <row r="229">
       <c r="A229" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B229" s="331">
         <v>85.00000461935997</v>
@@ -20544,7 +20679,7 @@
     </row>
     <row r="230">
       <c r="A230" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B230" s="331">
         <v>85.00000461935997</v>
@@ -20624,7 +20759,7 @@
     </row>
     <row r="231">
       <c r="A231" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B231" s="331">
         <v>85.00000461935997</v>
@@ -20704,7 +20839,7 @@
     </row>
     <row r="232">
       <c r="A232" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B232" s="331">
         <v>85.00000461935997</v>
@@ -20784,7 +20919,7 @@
     </row>
     <row r="233">
       <c r="A233" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B233" s="331">
         <v>85.00000461935997</v>
@@ -20864,7 +20999,7 @@
     </row>
     <row r="234">
       <c r="A234" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B234" s="331">
         <v>85.00000461935997</v>
@@ -20944,7 +21079,7 @@
     </row>
     <row r="235">
       <c r="A235" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B235" s="331">
         <v>85.00000461935997</v>
@@ -21024,12 +21159,12 @@
     </row>
     <row r="236">
       <c r="A236" s="329" t="s">
-        <v>536</v>
+        <v>381</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B237" s="331">
         <v>324.99998807907104</v>
@@ -21109,7 +21244,7 @@
     </row>
     <row r="238">
       <c r="A238" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B238" s="331">
         <v>324.99998807907104</v>
@@ -21189,7 +21324,7 @@
     </row>
     <row r="239">
       <c r="A239" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B239" s="331">
         <v>324.99998807907104</v>
@@ -21269,7 +21404,7 @@
     </row>
     <row r="240">
       <c r="A240" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B240" s="331">
         <v>324.99998807907104</v>
@@ -21349,7 +21484,7 @@
     </row>
     <row r="241">
       <c r="A241" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B241" s="331">
         <v>324.99998807907104</v>
@@ -21429,7 +21564,7 @@
     </row>
     <row r="242">
       <c r="A242" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B242" s="331">
         <v>324.99998807907104</v>
@@ -21509,7 +21644,7 @@
     </row>
     <row r="243">
       <c r="A243" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B243" s="331">
         <v>324.99998807907104</v>
@@ -21589,7 +21724,7 @@
     </row>
     <row r="244">
       <c r="A244" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B244" s="331">
         <v>324.99998807907104</v>
@@ -21669,7 +21804,7 @@
     </row>
     <row r="245">
       <c r="A245" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B245" s="331">
         <v>324.99998807907104</v>
@@ -21749,15 +21884,15 @@
     </row>
     <row r="246">
       <c r="A246" s="329" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B247" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C247" s="331">
         <v>78.239551926516</v>
@@ -21834,10 +21969,10 @@
     </row>
     <row r="248">
       <c r="A248" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B248" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C248" s="331">
         <v>78.239551926516</v>
@@ -21914,10 +22049,10 @@
     </row>
     <row r="249">
       <c r="A249" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B249" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C249" s="331">
         <v>79.847029919708362</v>
@@ -21994,10 +22129,10 @@
     </row>
     <row r="250">
       <c r="A250" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B250" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C250" s="331">
         <v>89.410447014282582</v>
@@ -22074,10 +22209,10 @@
     </row>
     <row r="251">
       <c r="A251" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B251" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C251" s="331">
         <v>98.93432954564139</v>
@@ -22154,10 +22289,10 @@
     </row>
     <row r="252">
       <c r="A252" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B252" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C252" s="331">
         <v>108.41903529323892</v>
@@ -22234,10 +22369,10 @@
     </row>
     <row r="253">
       <c r="A253" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B253" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C253" s="331">
         <v>117.86491705719038</v>
@@ -22314,10 +22449,10 @@
     </row>
     <row r="254">
       <c r="A254" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B254" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C254" s="331">
         <v>107.94570935266519</v>
@@ -22394,10 +22529,10 @@
     </row>
     <row r="255">
       <c r="A255" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B255" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C255" s="331">
         <v>80.565739545587192</v>
@@ -22474,12 +22609,12 @@
     </row>
     <row r="256">
       <c r="A256" s="329" t="s">
-        <v>537</v>
+        <v>383</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B257" s="331">
         <v>7.9999997979030013</v>
@@ -22559,7 +22694,7 @@
     </row>
     <row r="258">
       <c r="A258" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B258" s="331">
         <v>7.9999997979030013</v>
@@ -22639,7 +22774,7 @@
     </row>
     <row r="259">
       <c r="A259" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B259" s="331">
         <v>7.9999997979030013</v>
@@ -22719,7 +22854,7 @@
     </row>
     <row r="260">
       <c r="A260" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B260" s="331">
         <v>7.9999997979030013</v>
@@ -22799,7 +22934,7 @@
     </row>
     <row r="261">
       <c r="A261" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B261" s="331">
         <v>7.9999997979030013</v>
@@ -22879,7 +23014,7 @@
     </row>
     <row r="262">
       <c r="A262" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B262" s="331">
         <v>7.9999997979030013</v>
@@ -22959,7 +23094,7 @@
     </row>
     <row r="263">
       <c r="A263" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B263" s="331">
         <v>7.9999997979030013</v>
@@ -23039,7 +23174,7 @@
     </row>
     <row r="264">
       <c r="A264" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B264" s="331">
         <v>7.9999997979030013</v>
@@ -23119,7 +23254,7 @@
     </row>
     <row r="265">
       <c r="A265" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B265" s="331">
         <v>7.9999997979030013</v>
@@ -23199,12 +23334,12 @@
     </row>
     <row r="266">
       <c r="A266" s="329" t="s">
-        <v>538</v>
+        <v>384</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B267" s="331">
         <v>331.9999948143959</v>
@@ -23284,7 +23419,7 @@
     </row>
     <row r="268">
       <c r="A268" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B268" s="331">
         <v>331.9999948143959</v>
@@ -23364,7 +23499,7 @@
     </row>
     <row r="269">
       <c r="A269" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B269" s="331">
         <v>331.9999948143959</v>
@@ -23444,7 +23579,7 @@
     </row>
     <row r="270">
       <c r="A270" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B270" s="331">
         <v>331.9999948143959</v>
@@ -23524,7 +23659,7 @@
     </row>
     <row r="271">
       <c r="A271" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B271" s="331">
         <v>331.9999948143959</v>
@@ -23604,7 +23739,7 @@
     </row>
     <row r="272">
       <c r="A272" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B272" s="331">
         <v>331.9999948143959</v>
@@ -23684,7 +23819,7 @@
     </row>
     <row r="273">
       <c r="A273" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B273" s="331">
         <v>331.9999948143959</v>
@@ -23764,7 +23899,7 @@
     </row>
     <row r="274">
       <c r="A274" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B274" s="331">
         <v>331.9999948143959</v>
@@ -23844,7 +23979,7 @@
     </row>
     <row r="275">
       <c r="A275" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B275" s="331">
         <v>331.9999948143959</v>
@@ -23924,12 +24059,12 @@
     </row>
     <row r="277">
       <c r="A277" s="267" t="s">
-        <v>539</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="333" t="s">
-        <v>508</v>
+        <v>353</v>
       </c>
       <c r="B278" s="334">
         <v>44012</v>
@@ -24009,12 +24144,12 @@
     </row>
     <row r="279">
       <c r="A279" s="329" t="s">
-        <v>509</v>
+        <v>354</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B280" s="331">
         <v>16.225000144913793</v>
@@ -24094,7 +24229,7 @@
     </row>
     <row r="281">
       <c r="A281" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B281" s="331">
         <v>16.225000144913793</v>
@@ -24174,7 +24309,7 @@
     </row>
     <row r="282">
       <c r="A282" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B282" s="331">
         <v>16.225000144913793</v>
@@ -24254,7 +24389,7 @@
     </row>
     <row r="283">
       <c r="A283" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B283" s="331">
         <v>16.225000144913793</v>
@@ -24334,7 +24469,7 @@
     </row>
     <row r="284">
       <c r="A284" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B284" s="331">
         <v>16.225000144913793</v>
@@ -24414,7 +24549,7 @@
     </row>
     <row r="285">
       <c r="A285" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B285" s="331">
         <v>16.225000144913793</v>
@@ -24494,7 +24629,7 @@
     </row>
     <row r="286">
       <c r="A286" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B286" s="331">
         <v>16.225000144913793</v>
@@ -24574,7 +24709,7 @@
     </row>
     <row r="287">
       <c r="A287" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B287" s="331">
         <v>16.225000144913793</v>
@@ -24654,7 +24789,7 @@
     </row>
     <row r="288">
       <c r="A288" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B288" s="331">
         <v>16.225000144913793</v>
@@ -24734,12 +24869,12 @@
     </row>
     <row r="289">
       <c r="A289" s="329" t="s">
-        <v>519</v>
+        <v>364</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B290" s="331">
         <v>30.199999455362558</v>
@@ -24819,7 +24954,7 @@
     </row>
     <row r="291">
       <c r="A291" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B291" s="331">
         <v>30.199999455362558</v>
@@ -24899,7 +25034,7 @@
     </row>
     <row r="292">
       <c r="A292" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B292" s="331">
         <v>30.199999455362558</v>
@@ -24979,7 +25114,7 @@
     </row>
     <row r="293">
       <c r="A293" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B293" s="331">
         <v>30.199999455362558</v>
@@ -25059,7 +25194,7 @@
     </row>
     <row r="294">
       <c r="A294" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B294" s="331">
         <v>30.199999455362558</v>
@@ -25139,7 +25274,7 @@
     </row>
     <row r="295">
       <c r="A295" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B295" s="331">
         <v>30.199999455362558</v>
@@ -25219,7 +25354,7 @@
     </row>
     <row r="296">
       <c r="A296" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B296" s="331">
         <v>30.199999455362558</v>
@@ -25299,7 +25434,7 @@
     </row>
     <row r="297">
       <c r="A297" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B297" s="331">
         <v>30.199999455362558</v>
@@ -25379,7 +25514,7 @@
     </row>
     <row r="298">
       <c r="A298" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B298" s="331">
         <v>30.199999455362558</v>
@@ -25459,12 +25594,12 @@
     </row>
     <row r="299">
       <c r="A299" s="329" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B300" s="331">
         <v>36.925000604242086</v>
@@ -25544,7 +25679,7 @@
     </row>
     <row r="301">
       <c r="A301" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B301" s="331">
         <v>36.925000604242086</v>
@@ -25624,7 +25759,7 @@
     </row>
     <row r="302">
       <c r="A302" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B302" s="331">
         <v>36.925000604242086</v>
@@ -25704,7 +25839,7 @@
     </row>
     <row r="303">
       <c r="A303" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B303" s="331">
         <v>36.925000604242086</v>
@@ -25784,7 +25919,7 @@
     </row>
     <row r="304">
       <c r="A304" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B304" s="331">
         <v>36.925000604242086</v>
@@ -25864,7 +25999,7 @@
     </row>
     <row r="305">
       <c r="A305" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B305" s="331">
         <v>36.925000604242086</v>
@@ -25944,7 +26079,7 @@
     </row>
     <row r="306">
       <c r="A306" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B306" s="331">
         <v>36.925000604242086</v>
@@ -26024,7 +26159,7 @@
     </row>
     <row r="307">
       <c r="A307" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B307" s="331">
         <v>36.925000604242086</v>
@@ -26104,7 +26239,7 @@
     </row>
     <row r="308">
       <c r="A308" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B308" s="331">
         <v>36.925000604242086</v>
@@ -26184,12 +26319,12 @@
     </row>
     <row r="309">
       <c r="A309" s="329" t="s">
-        <v>521</v>
+        <v>366</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B310" s="331">
         <v>54.574999958276749</v>
@@ -26269,7 +26404,7 @@
     </row>
     <row r="311">
       <c r="A311" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B311" s="331">
         <v>54.574999958276749</v>
@@ -26349,7 +26484,7 @@
     </row>
     <row r="312">
       <c r="A312" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B312" s="331">
         <v>54.574999958276749</v>
@@ -26429,7 +26564,7 @@
     </row>
     <row r="313">
       <c r="A313" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B313" s="331">
         <v>54.574999958276749</v>
@@ -26509,7 +26644,7 @@
     </row>
     <row r="314">
       <c r="A314" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B314" s="331">
         <v>54.574999958276749</v>
@@ -26589,7 +26724,7 @@
     </row>
     <row r="315">
       <c r="A315" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B315" s="331">
         <v>54.574999958276749</v>
@@ -26669,7 +26804,7 @@
     </row>
     <row r="316">
       <c r="A316" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B316" s="331">
         <v>54.574999958276749</v>
@@ -26749,7 +26884,7 @@
     </row>
     <row r="317">
       <c r="A317" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B317" s="331">
         <v>54.574999958276749</v>
@@ -26829,7 +26964,7 @@
     </row>
     <row r="318">
       <c r="A318" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B318" s="331">
         <v>54.574999958276749</v>
@@ -26909,12 +27044,12 @@
     </row>
     <row r="319">
       <c r="A319" s="329" t="s">
-        <v>522</v>
+        <v>367</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B320" s="331">
         <v>29.299999587237835</v>
@@ -26994,7 +27129,7 @@
     </row>
     <row r="321">
       <c r="A321" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B321" s="331">
         <v>29.299999587237835</v>
@@ -27074,7 +27209,7 @@
     </row>
     <row r="322">
       <c r="A322" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B322" s="331">
         <v>29.299999587237835</v>
@@ -27154,7 +27289,7 @@
     </row>
     <row r="323">
       <c r="A323" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B323" s="331">
         <v>29.299999587237835</v>
@@ -27234,7 +27369,7 @@
     </row>
     <row r="324">
       <c r="A324" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B324" s="331">
         <v>29.299999587237835</v>
@@ -27314,7 +27449,7 @@
     </row>
     <row r="325">
       <c r="A325" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B325" s="331">
         <v>29.299999587237835</v>
@@ -27394,7 +27529,7 @@
     </row>
     <row r="326">
       <c r="A326" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B326" s="331">
         <v>29.299999587237835</v>
@@ -27474,7 +27609,7 @@
     </row>
     <row r="327">
       <c r="A327" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B327" s="331">
         <v>29.299999587237835</v>
@@ -27554,7 +27689,7 @@
     </row>
     <row r="328">
       <c r="A328" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B328" s="331">
         <v>29.299999587237835</v>
@@ -27634,12 +27769,12 @@
     </row>
     <row r="329">
       <c r="A329" s="329" t="s">
-        <v>523</v>
+        <v>368</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B330" s="331">
         <v>26.449998840689659</v>
@@ -27719,7 +27854,7 @@
     </row>
     <row r="331">
       <c r="A331" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B331" s="331">
         <v>26.449998840689659</v>
@@ -27799,7 +27934,7 @@
     </row>
     <row r="332">
       <c r="A332" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B332" s="331">
         <v>26.449998840689659</v>
@@ -27879,7 +28014,7 @@
     </row>
     <row r="333">
       <c r="A333" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B333" s="331">
         <v>26.449998840689659</v>
@@ -27959,7 +28094,7 @@
     </row>
     <row r="334">
       <c r="A334" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B334" s="331">
         <v>26.449998840689659</v>
@@ -28039,7 +28174,7 @@
     </row>
     <row r="335">
       <c r="A335" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B335" s="331">
         <v>26.449998840689659</v>
@@ -28119,7 +28254,7 @@
     </row>
     <row r="336">
       <c r="A336" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B336" s="331">
         <v>26.449998840689659</v>
@@ -28199,7 +28334,7 @@
     </row>
     <row r="337">
       <c r="A337" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B337" s="331">
         <v>26.449998840689659</v>
@@ -28279,7 +28414,7 @@
     </row>
     <row r="338">
       <c r="A338" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B338" s="331">
         <v>26.449998840689659</v>
@@ -28359,12 +28494,12 @@
     </row>
     <row r="339">
       <c r="A339" s="329" t="s">
-        <v>524</v>
+        <v>369</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B340" s="331">
         <v>15.999999595806003</v>
@@ -28444,7 +28579,7 @@
     </row>
     <row r="341">
       <c r="A341" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B341" s="331">
         <v>15.999999595806003</v>
@@ -28524,7 +28659,7 @@
     </row>
     <row r="342">
       <c r="A342" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B342" s="331">
         <v>15.999999595806003</v>
@@ -28604,7 +28739,7 @@
     </row>
     <row r="343">
       <c r="A343" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B343" s="331">
         <v>15.999999595806003</v>
@@ -28684,7 +28819,7 @@
     </row>
     <row r="344">
       <c r="A344" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B344" s="331">
         <v>15.999999595806003</v>
@@ -28764,7 +28899,7 @@
     </row>
     <row r="345">
       <c r="A345" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B345" s="331">
         <v>15.999999595806003</v>
@@ -28844,7 +28979,7 @@
     </row>
     <row r="346">
       <c r="A346" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B346" s="331">
         <v>15.999999595806003</v>
@@ -28924,7 +29059,7 @@
     </row>
     <row r="347">
       <c r="A347" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B347" s="331">
         <v>15.999999595806003</v>
@@ -29004,7 +29139,7 @@
     </row>
     <row r="348">
       <c r="A348" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B348" s="331">
         <v>15.999999595806003</v>
@@ -29084,12 +29219,12 @@
     </row>
     <row r="349">
       <c r="A349" s="329" t="s">
-        <v>525</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B350" s="331">
         <v>17.999999690800905</v>
@@ -29169,7 +29304,7 @@
     </row>
     <row r="351">
       <c r="A351" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B351" s="331">
         <v>17.999999690800905</v>
@@ -29249,7 +29384,7 @@
     </row>
     <row r="352">
       <c r="A352" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B352" s="331">
         <v>17.999999690800905</v>
@@ -29329,7 +29464,7 @@
     </row>
     <row r="353">
       <c r="A353" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B353" s="331">
         <v>17.999999690800905</v>
@@ -29409,7 +29544,7 @@
     </row>
     <row r="354">
       <c r="A354" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B354" s="331">
         <v>17.999999690800905</v>
@@ -29489,7 +29624,7 @@
     </row>
     <row r="355">
       <c r="A355" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B355" s="331">
         <v>17.999999690800905</v>
@@ -29569,7 +29704,7 @@
     </row>
     <row r="356">
       <c r="A356" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B356" s="331">
         <v>17.999999690800905</v>
@@ -29649,7 +29784,7 @@
     </row>
     <row r="357">
       <c r="A357" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B357" s="331">
         <v>17.999999690800905</v>
@@ -29729,7 +29864,7 @@
     </row>
     <row r="358">
       <c r="A358" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B358" s="331">
         <v>17.999999690800905</v>
@@ -29809,12 +29944,12 @@
     </row>
     <row r="359">
       <c r="A359" s="329" t="s">
-        <v>526</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B360" s="331">
         <v>15.999999595806003</v>
@@ -29894,7 +30029,7 @@
     </row>
     <row r="361">
       <c r="A361" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B361" s="331">
         <v>15.999999595806003</v>
@@ -29974,7 +30109,7 @@
     </row>
     <row r="362">
       <c r="A362" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B362" s="331">
         <v>15.999999595806003</v>
@@ -30054,7 +30189,7 @@
     </row>
     <row r="363">
       <c r="A363" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B363" s="331">
         <v>15.999999595806003</v>
@@ -30134,7 +30269,7 @@
     </row>
     <row r="364">
       <c r="A364" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B364" s="331">
         <v>15.999999595806003</v>
@@ -30214,7 +30349,7 @@
     </row>
     <row r="365">
       <c r="A365" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B365" s="331">
         <v>15.999999595806003</v>
@@ -30294,7 +30429,7 @@
     </row>
     <row r="366">
       <c r="A366" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B366" s="331">
         <v>15.999999595806003</v>
@@ -30374,7 +30509,7 @@
     </row>
     <row r="367">
       <c r="A367" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B367" s="331">
         <v>15.999999595806003</v>
@@ -30454,7 +30589,7 @@
     </row>
     <row r="368">
       <c r="A368" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B368" s="331">
         <v>15.999999595806003</v>
@@ -30534,12 +30669,12 @@
     </row>
     <row r="369">
       <c r="A369" s="329" t="s">
-        <v>527</v>
+        <v>372</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B370" s="331">
         <v>17.999999690800905</v>
@@ -30619,7 +30754,7 @@
     </row>
     <row r="371">
       <c r="A371" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B371" s="331">
         <v>17.999999690800905</v>
@@ -30699,7 +30834,7 @@
     </row>
     <row r="372">
       <c r="A372" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B372" s="331">
         <v>17.999999690800905</v>
@@ -30779,7 +30914,7 @@
     </row>
     <row r="373">
       <c r="A373" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B373" s="331">
         <v>17.999999690800905</v>
@@ -30859,7 +30994,7 @@
     </row>
     <row r="374">
       <c r="A374" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B374" s="331">
         <v>17.999999690800905</v>
@@ -30939,7 +31074,7 @@
     </row>
     <row r="375">
       <c r="A375" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B375" s="331">
         <v>17.999999690800905</v>
@@ -31019,7 +31154,7 @@
     </row>
     <row r="376">
       <c r="A376" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B376" s="331">
         <v>17.999999690800905</v>
@@ -31099,7 +31234,7 @@
     </row>
     <row r="377">
       <c r="A377" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B377" s="331">
         <v>17.999999690800905</v>
@@ -31179,7 +31314,7 @@
     </row>
     <row r="378">
       <c r="A378" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B378" s="331">
         <v>17.999999690800905</v>
@@ -31259,12 +31394,12 @@
     </row>
     <row r="379">
       <c r="A379" s="329" t="s">
-        <v>528</v>
+        <v>373</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B380" s="331">
         <v>28.99999963119626</v>
@@ -31344,7 +31479,7 @@
     </row>
     <row r="381">
       <c r="A381" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B381" s="331">
         <v>28.99999963119626</v>
@@ -31424,7 +31559,7 @@
     </row>
     <row r="382">
       <c r="A382" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B382" s="331">
         <v>28.99999963119626</v>
@@ -31504,7 +31639,7 @@
     </row>
     <row r="383">
       <c r="A383" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B383" s="331">
         <v>28.99999963119626</v>
@@ -31584,7 +31719,7 @@
     </row>
     <row r="384">
       <c r="A384" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B384" s="331">
         <v>28.99999963119626</v>
@@ -31664,7 +31799,7 @@
     </row>
     <row r="385">
       <c r="A385" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B385" s="331">
         <v>28.99999963119626</v>
@@ -31744,7 +31879,7 @@
     </row>
     <row r="386">
       <c r="A386" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B386" s="331">
         <v>28.99999963119626</v>
@@ -31824,7 +31959,7 @@
     </row>
     <row r="387">
       <c r="A387" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B387" s="331">
         <v>28.99999963119626</v>
@@ -31904,7 +32039,7 @@
     </row>
     <row r="388">
       <c r="A388" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B388" s="331">
         <v>28.99999963119626</v>
@@ -31984,12 +32119,12 @@
     </row>
     <row r="389">
       <c r="A389" s="329" t="s">
-        <v>529</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B390" s="331">
         <v>49.000000581145287</v>
@@ -32069,7 +32204,7 @@
     </row>
     <row r="391">
       <c r="A391" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B391" s="331">
         <v>49.000000581145287</v>
@@ -32149,7 +32284,7 @@
     </row>
     <row r="392">
       <c r="A392" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B392" s="331">
         <v>49.000000581145287</v>
@@ -32229,7 +32364,7 @@
     </row>
     <row r="393">
       <c r="A393" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B393" s="331">
         <v>49.000000581145287</v>
@@ -32309,7 +32444,7 @@
     </row>
     <row r="394">
       <c r="A394" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B394" s="331">
         <v>49.000000581145287</v>
@@ -32389,7 +32524,7 @@
     </row>
     <row r="395">
       <c r="A395" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B395" s="331">
         <v>49.000000581145287</v>
@@ -32469,7 +32604,7 @@
     </row>
     <row r="396">
       <c r="A396" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B396" s="331">
         <v>49.000000581145287</v>
@@ -32549,7 +32684,7 @@
     </row>
     <row r="397">
       <c r="A397" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B397" s="331">
         <v>49.000000581145287</v>
@@ -32629,7 +32764,7 @@
     </row>
     <row r="398">
       <c r="A398" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B398" s="331">
         <v>49.000000581145287</v>
@@ -32709,12 +32844,12 @@
     </row>
     <row r="399">
       <c r="A399" s="329" t="s">
-        <v>530</v>
+        <v>375</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B400" s="331">
         <v>65.999999642372131</v>
@@ -32794,7 +32929,7 @@
     </row>
     <row r="401">
       <c r="A401" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B401" s="331">
         <v>65.999999642372131</v>
@@ -32874,7 +33009,7 @@
     </row>
     <row r="402">
       <c r="A402" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B402" s="331">
         <v>65.999999642372131</v>
@@ -32954,7 +33089,7 @@
     </row>
     <row r="403">
       <c r="A403" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B403" s="331">
         <v>65.999999642372131</v>
@@ -33034,7 +33169,7 @@
     </row>
     <row r="404">
       <c r="A404" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B404" s="331">
         <v>65.999999642372131</v>
@@ -33114,7 +33249,7 @@
     </row>
     <row r="405">
       <c r="A405" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B405" s="331">
         <v>65.999999642372131</v>
@@ -33194,7 +33329,7 @@
     </row>
     <row r="406">
       <c r="A406" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B406" s="331">
         <v>65.999999642372131</v>
@@ -33274,7 +33409,7 @@
     </row>
     <row r="407">
       <c r="A407" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B407" s="331">
         <v>65.999999642372131</v>
@@ -33354,7 +33489,7 @@
     </row>
     <row r="408">
       <c r="A408" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B408" s="331">
         <v>65.999999642372131</v>
@@ -33434,12 +33569,12 @@
     </row>
     <row r="409">
       <c r="A409" s="329" t="s">
-        <v>531</v>
+        <v>376</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B410" s="331">
         <v>38.000000640749931</v>
@@ -33519,7 +33654,7 @@
     </row>
     <row r="411">
       <c r="A411" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B411" s="331">
         <v>38.000000640749931</v>
@@ -33599,7 +33734,7 @@
     </row>
     <row r="412">
       <c r="A412" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B412" s="331">
         <v>38.000000640749931</v>
@@ -33679,7 +33814,7 @@
     </row>
     <row r="413">
       <c r="A413" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B413" s="331">
         <v>38.000000640749931</v>
@@ -33759,7 +33894,7 @@
     </row>
     <row r="414">
       <c r="A414" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B414" s="331">
         <v>38.000000640749931</v>
@@ -33839,7 +33974,7 @@
     </row>
     <row r="415">
       <c r="A415" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B415" s="331">
         <v>38.000000640749931</v>
@@ -33919,7 +34054,7 @@
     </row>
     <row r="416">
       <c r="A416" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B416" s="331">
         <v>38.000000640749931</v>
@@ -33999,7 +34134,7 @@
     </row>
     <row r="417">
       <c r="A417" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B417" s="331">
         <v>38.000000640749931</v>
@@ -34079,7 +34214,7 @@
     </row>
     <row r="418">
       <c r="A418" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B418" s="331">
         <v>38.000000640749931</v>
@@ -34159,12 +34294,12 @@
     </row>
     <row r="419">
       <c r="A419" s="329" t="s">
-        <v>532</v>
+        <v>377</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B420" s="331">
         <v>57.999999262392521</v>
@@ -34244,7 +34379,7 @@
     </row>
     <row r="421">
       <c r="A421" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B421" s="331">
         <v>57.999999262392521</v>
@@ -34324,7 +34459,7 @@
     </row>
     <row r="422">
       <c r="A422" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B422" s="331">
         <v>57.999999262392521</v>
@@ -34404,7 +34539,7 @@
     </row>
     <row r="423">
       <c r="A423" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B423" s="331">
         <v>57.999999262392521</v>
@@ -34484,7 +34619,7 @@
     </row>
     <row r="424">
       <c r="A424" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B424" s="331">
         <v>57.999999262392521</v>
@@ -34564,7 +34699,7 @@
     </row>
     <row r="425">
       <c r="A425" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B425" s="331">
         <v>57.999999262392521</v>
@@ -34644,7 +34779,7 @@
     </row>
     <row r="426">
       <c r="A426" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B426" s="331">
         <v>57.999999262392521</v>
@@ -34724,7 +34859,7 @@
     </row>
     <row r="427">
       <c r="A427" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B427" s="331">
         <v>57.999999262392521</v>
@@ -34804,7 +34939,7 @@
     </row>
     <row r="428">
       <c r="A428" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B428" s="331">
         <v>57.999999262392521</v>
@@ -34884,12 +35019,12 @@
     </row>
     <row r="429">
       <c r="A429" s="329" t="s">
-        <v>533</v>
+        <v>378</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B430" s="331">
         <v>63.99999838322401</v>
@@ -34969,7 +35104,7 @@
     </row>
     <row r="431">
       <c r="A431" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B431" s="331">
         <v>63.99999838322401</v>
@@ -35049,7 +35184,7 @@
     </row>
     <row r="432">
       <c r="A432" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B432" s="331">
         <v>63.99999838322401</v>
@@ -35129,7 +35264,7 @@
     </row>
     <row r="433">
       <c r="A433" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B433" s="331">
         <v>63.99999838322401</v>
@@ -35209,7 +35344,7 @@
     </row>
     <row r="434">
       <c r="A434" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B434" s="331">
         <v>63.99999838322401</v>
@@ -35289,7 +35424,7 @@
     </row>
     <row r="435">
       <c r="A435" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B435" s="331">
         <v>63.99999838322401</v>
@@ -35369,7 +35504,7 @@
     </row>
     <row r="436">
       <c r="A436" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B436" s="331">
         <v>63.99999838322401</v>
@@ -35449,7 +35584,7 @@
     </row>
     <row r="437">
       <c r="A437" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B437" s="331">
         <v>63.99999838322401</v>
@@ -35529,7 +35664,7 @@
     </row>
     <row r="438">
       <c r="A438" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B438" s="331">
         <v>63.99999838322401</v>
@@ -35609,12 +35744,12 @@
     </row>
     <row r="439">
       <c r="A439" s="329" t="s">
-        <v>534</v>
+        <v>379</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B440" s="331">
         <v>74.499999172985554</v>
@@ -35694,7 +35829,7 @@
     </row>
     <row r="441">
       <c r="A441" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B441" s="331">
         <v>74.499999172985554</v>
@@ -35774,7 +35909,7 @@
     </row>
     <row r="442">
       <c r="A442" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B442" s="331">
         <v>74.499999172985554</v>
@@ -35854,7 +35989,7 @@
     </row>
     <row r="443">
       <c r="A443" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B443" s="331">
         <v>74.499999172985554</v>
@@ -35934,7 +36069,7 @@
     </row>
     <row r="444">
       <c r="A444" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B444" s="331">
         <v>74.499999172985554</v>
@@ -36014,7 +36149,7 @@
     </row>
     <row r="445">
       <c r="A445" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B445" s="331">
         <v>74.499999172985554</v>
@@ -36094,7 +36229,7 @@
     </row>
     <row r="446">
       <c r="A446" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B446" s="331">
         <v>74.499999172985554</v>
@@ -36174,7 +36309,7 @@
     </row>
     <row r="447">
       <c r="A447" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B447" s="331">
         <v>74.499999172985554</v>
@@ -36254,7 +36389,7 @@
     </row>
     <row r="448">
       <c r="A448" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B448" s="331">
         <v>74.499999172985554</v>
@@ -36334,12 +36469,12 @@
     </row>
     <row r="449">
       <c r="A449" s="329" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B450" s="331">
         <v>85.00000461935997</v>
@@ -36419,7 +36554,7 @@
     </row>
     <row r="451">
       <c r="A451" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B451" s="331">
         <v>85.00000461935997</v>
@@ -36499,7 +36634,7 @@
     </row>
     <row r="452">
       <c r="A452" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B452" s="331">
         <v>85.00000461935997</v>
@@ -36579,7 +36714,7 @@
     </row>
     <row r="453">
       <c r="A453" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B453" s="331">
         <v>85.00000461935997</v>
@@ -36659,7 +36794,7 @@
     </row>
     <row r="454">
       <c r="A454" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B454" s="331">
         <v>85.00000461935997</v>
@@ -36739,7 +36874,7 @@
     </row>
     <row r="455">
       <c r="A455" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B455" s="331">
         <v>85.00000461935997</v>
@@ -36819,7 +36954,7 @@
     </row>
     <row r="456">
       <c r="A456" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B456" s="331">
         <v>85.00000461935997</v>
@@ -36899,7 +37034,7 @@
     </row>
     <row r="457">
       <c r="A457" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B457" s="331">
         <v>85.00000461935997</v>
@@ -36979,7 +37114,7 @@
     </row>
     <row r="458">
       <c r="A458" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B458" s="331">
         <v>85.00000461935997</v>
@@ -37059,12 +37194,12 @@
     </row>
     <row r="459">
       <c r="A459" s="329" t="s">
-        <v>536</v>
+        <v>381</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B460" s="331">
         <v>324.99998807907104</v>
@@ -37144,7 +37279,7 @@
     </row>
     <row r="461">
       <c r="A461" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B461" s="331">
         <v>324.99998807907104</v>
@@ -37224,7 +37359,7 @@
     </row>
     <row r="462">
       <c r="A462" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B462" s="331">
         <v>324.99998807907104</v>
@@ -37304,7 +37439,7 @@
     </row>
     <row r="463">
       <c r="A463" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B463" s="331">
         <v>324.99998807907104</v>
@@ -37384,7 +37519,7 @@
     </row>
     <row r="464">
       <c r="A464" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B464" s="331">
         <v>324.99998807907104</v>
@@ -37464,7 +37599,7 @@
     </row>
     <row r="465">
       <c r="A465" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B465" s="331">
         <v>324.99998807907104</v>
@@ -37544,7 +37679,7 @@
     </row>
     <row r="466">
       <c r="A466" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B466" s="331">
         <v>324.99998807907104</v>
@@ -37624,7 +37759,7 @@
     </row>
     <row r="467">
       <c r="A467" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B467" s="331">
         <v>324.99998807907104</v>
@@ -37704,7 +37839,7 @@
     </row>
     <row r="468">
       <c r="A468" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B468" s="331">
         <v>324.99998807907104</v>
@@ -37784,15 +37919,15 @@
     </row>
     <row r="469">
       <c r="A469" s="329" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B470" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C470" s="331">
         <v>78.239551926516</v>
@@ -37869,10 +38004,10 @@
     </row>
     <row r="471">
       <c r="A471" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B471" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C471" s="331">
         <v>78.239551926516</v>
@@ -37949,10 +38084,10 @@
     </row>
     <row r="472">
       <c r="A472" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B472" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C472" s="331">
         <v>79.847029919708362</v>
@@ -38029,10 +38164,10 @@
     </row>
     <row r="473">
       <c r="A473" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B473" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C473" s="331">
         <v>89.410447014282582</v>
@@ -38109,10 +38244,10 @@
     </row>
     <row r="474">
       <c r="A474" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B474" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C474" s="331">
         <v>98.93432954564139</v>
@@ -38189,10 +38324,10 @@
     </row>
     <row r="475">
       <c r="A475" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B475" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C475" s="331">
         <v>108.41903529323892</v>
@@ -38269,10 +38404,10 @@
     </row>
     <row r="476">
       <c r="A476" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B476" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C476" s="331">
         <v>117.86491705719038</v>
@@ -38349,10 +38484,10 @@
     </row>
     <row r="477">
       <c r="A477" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B477" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C477" s="331">
         <v>107.94570935266519</v>
@@ -38429,10 +38564,10 @@
     </row>
     <row r="478">
       <c r="A478" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B478" s="331">
-        <v>75.500002130866051</v>
+        <v>68.199997767806053</v>
       </c>
       <c r="C478" s="331">
         <v>80.565739545587192</v>
@@ -38509,12 +38644,12 @@
     </row>
     <row r="479">
       <c r="A479" s="329" t="s">
-        <v>537</v>
+        <v>383</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B480" s="331">
         <v>7.9999997979030013</v>
@@ -38594,7 +38729,7 @@
     </row>
     <row r="481">
       <c r="A481" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B481" s="331">
         <v>7.9999997979030013</v>
@@ -38674,7 +38809,7 @@
     </row>
     <row r="482">
       <c r="A482" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B482" s="331">
         <v>7.9999997979030013</v>
@@ -38754,7 +38889,7 @@
     </row>
     <row r="483">
       <c r="A483" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B483" s="331">
         <v>7.9999997979030013</v>
@@ -38834,7 +38969,7 @@
     </row>
     <row r="484">
       <c r="A484" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B484" s="331">
         <v>7.9999997979030013</v>
@@ -38914,7 +39049,7 @@
     </row>
     <row r="485">
       <c r="A485" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B485" s="331">
         <v>7.9999997979030013</v>
@@ -38994,7 +39129,7 @@
     </row>
     <row r="486">
       <c r="A486" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B486" s="331">
         <v>7.9999997979030013</v>
@@ -39074,7 +39209,7 @@
     </row>
     <row r="487">
       <c r="A487" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B487" s="331">
         <v>7.9999997979030013</v>
@@ -39154,7 +39289,7 @@
     </row>
     <row r="488">
       <c r="A488" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B488" s="331">
         <v>7.9999997979030013</v>
@@ -39234,12 +39369,12 @@
     </row>
     <row r="489">
       <c r="A489" s="329" t="s">
-        <v>538</v>
+        <v>384</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="330" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="B490" s="331">
         <v>331.9999948143959</v>
@@ -39319,7 +39454,7 @@
     </row>
     <row r="491">
       <c r="A491" s="330" t="s">
-        <v>511</v>
+        <v>356</v>
       </c>
       <c r="B491" s="331">
         <v>331.9999948143959</v>
@@ -39399,7 +39534,7 @@
     </row>
     <row r="492">
       <c r="A492" s="330" t="s">
-        <v>512</v>
+        <v>357</v>
       </c>
       <c r="B492" s="331">
         <v>331.9999948143959</v>
@@ -39479,7 +39614,7 @@
     </row>
     <row r="493">
       <c r="A493" s="330" t="s">
-        <v>513</v>
+        <v>358</v>
       </c>
       <c r="B493" s="331">
         <v>331.9999948143959</v>
@@ -39559,7 +39694,7 @@
     </row>
     <row r="494">
       <c r="A494" s="330" t="s">
-        <v>514</v>
+        <v>359</v>
       </c>
       <c r="B494" s="331">
         <v>331.9999948143959</v>
@@ -39639,7 +39774,7 @@
     </row>
     <row r="495">
       <c r="A495" s="330" t="s">
-        <v>515</v>
+        <v>360</v>
       </c>
       <c r="B495" s="331">
         <v>331.9999948143959</v>
@@ -39719,7 +39854,7 @@
     </row>
     <row r="496">
       <c r="A496" s="330" t="s">
-        <v>516</v>
+        <v>361</v>
       </c>
       <c r="B496" s="331">
         <v>331.9999948143959</v>
@@ -39799,7 +39934,7 @@
     </row>
     <row r="497">
       <c r="A497" s="330" t="s">
-        <v>517</v>
+        <v>362</v>
       </c>
       <c r="B497" s="331">
         <v>331.9999948143959</v>
@@ -39879,7 +40014,7 @@
     </row>
     <row r="498">
       <c r="A498" s="330" t="s">
-        <v>518</v>
+        <v>363</v>
       </c>
       <c r="B498" s="331">
         <v>331.9999948143959</v>
@@ -39963,19 +40098,22 @@
     <mergeCell ref="A25:Z25"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="79" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
 https://www.thcdecisions.com | lxu@thc.net.cn&amp;R&amp;"Ubuntu,Regular"&amp;8&amp;K00-049&amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="45" max="1048575" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:M91"/>
   <sheetViews>
@@ -39983,15 +40121,17 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.75" customWidth="1" style="233"/>
     <col min="3" max="3" width="8.75" customWidth="1" style="237"/>
     <col min="4" max="4" width="8.75" customWidth="1" style="233"/>
     <col min="5" max="5" width="8.75" customWidth="1" style="238"/>
-    <col min="6" max="7" width="8.75" customWidth="1" style="237"/>
-    <col min="8" max="9" width="8.75" customWidth="1" style="238"/>
+    <col min="6" max="6" width="8.75" customWidth="1" style="237"/>
+    <col min="7" max="7" width="8.75" customWidth="1" style="237"/>
+    <col min="8" max="8" width="8.75" customWidth="1" style="238"/>
+    <col min="9" max="9" width="8.75" customWidth="1" style="238"/>
     <col min="10" max="11" width="8.75" customWidth="1" style="233"/>
     <col min="12" max="12" width="8.75" customWidth="1" style="239"/>
     <col min="13" max="13" width="10.625" customWidth="1" style="239"/>
@@ -40020,7 +40160,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="233" t="s">
-        <v>387</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -40028,7 +40168,7 @@
     </row>
     <row r="4" ht="17.25">
       <c r="A4" s="240" t="s">
-        <v>388</v>
+        <v>233</v>
       </c>
       <c r="B4" s="241"/>
       <c r="C4" s="241"/>
@@ -40045,12 +40185,12 @@
     </row>
     <row r="5">
       <c r="A5" s="273" t="s">
-        <v>389</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
       <c r="A6" s="306" t="s">
-        <v>390</v>
+        <v>235</v>
       </c>
       <c r="B6" s="306"/>
       <c r="C6" s="306"/>
@@ -40082,7 +40222,7 @@
     </row>
     <row r="8" ht="29.25" customHeight="1">
       <c r="A8" s="306" t="s">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="B8" s="306"/>
       <c r="C8" s="306"/>
@@ -40114,17 +40254,17 @@
     </row>
     <row r="10">
       <c r="A10" s="274" t="s">
-        <v>392</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="274" t="s">
-        <v>393</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="274" t="s">
-        <v>394</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -40132,22 +40272,22 @@
     </row>
     <row r="14">
       <c r="A14" s="274" t="s">
-        <v>395</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="274" t="s">
-        <v>396</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="274" t="s">
-        <v>397</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="274" t="s">
-        <v>398</v>
+        <v>243</v>
       </c>
       <c r="B26" s="281"/>
       <c r="C26" s="282"/>
@@ -40164,7 +40304,7 @@
     </row>
     <row r="27">
       <c r="A27" s="274" t="s">
-        <v>399</v>
+        <v>244</v>
       </c>
       <c r="B27" s="281"/>
       <c r="C27" s="282"/>
@@ -40181,7 +40321,7 @@
     </row>
     <row r="28" ht="49.5" customHeight="1">
       <c r="A28" s="306" t="s">
-        <v>400</v>
+        <v>245</v>
       </c>
       <c r="B28" s="306"/>
       <c r="C28" s="306"/>
@@ -40199,62 +40339,62 @@
     <row r="29"/>
     <row r="30" ht="17.25">
       <c r="A30" s="240" t="s">
-        <v>401</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="244" t="s">
-        <v>402</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="274" t="s">
-        <v>403</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="274" t="s">
-        <v>404</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="274" t="s">
-        <v>405</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="274" t="s">
-        <v>406</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="244" t="s">
-        <v>407</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="274" t="s">
-        <v>408</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="274" t="s">
-        <v>409</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="244" t="s">
-        <v>410</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="274" t="s">
-        <v>411</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="244" t="s">
-        <v>412</v>
+        <v>257</v>
       </c>
       <c r="B41" s="241"/>
       <c r="C41" s="241"/>
@@ -40271,237 +40411,237 @@
     </row>
     <row r="42">
       <c r="A42" s="274" t="s">
-        <v>413</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="244" t="s">
-        <v>414</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="274" t="s">
-        <v>415</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="244" t="s">
-        <v>416</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="274" t="s">
-        <v>417</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="244" t="s">
-        <v>418</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="274" t="s">
-        <v>419</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="274" t="s">
-        <v>420</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="274" t="s">
-        <v>421</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="244" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="274" t="s">
-        <v>423</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="274" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="274" t="s">
-        <v>425</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="274" t="s">
-        <v>426</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="274" t="s">
-        <v>427</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="274" t="s">
-        <v>428</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="244" t="s">
-        <v>429</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="274" t="s">
-        <v>430</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="274" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="274" t="s">
-        <v>432</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="244" t="s">
-        <v>433</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="274" t="s">
-        <v>434</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="274" t="s">
-        <v>435</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="244" t="s">
-        <v>436</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="274" t="s">
-        <v>437</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="274" t="s">
-        <v>438</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="274" t="s">
-        <v>439</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="274" t="s">
-        <v>440</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="274" t="s">
-        <v>441</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="274" t="s">
-        <v>442</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="274" t="s">
-        <v>443</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="274" t="s">
-        <v>444</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="274" t="s">
-        <v>445</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="244" t="s">
-        <v>446</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="274" t="s">
-        <v>447</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="244" t="s">
-        <v>448</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="274" t="s">
-        <v>449</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" ht="17.25">
       <c r="A80" s="240" t="s">
-        <v>450</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="244" t="s">
-        <v>451</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="244" t="s">
-        <v>452</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="244" t="s">
-        <v>453</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="244" t="s">
-        <v>454</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="244" t="s">
-        <v>455</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="274" t="s">
-        <v>456</v>
+        <v>301</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="244" t="s">
-        <v>457</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="244" t="s">
-        <v>458</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="244" t="s">
-        <v>459</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" ht="17.25">
@@ -40517,7 +40657,7 @@
     <mergeCell ref="A6:M6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="91" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="88" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -40527,16 +40667,41 @@
     <brk id="29" max="1048575" man="1"/>
     <brk id="64" max="1048575" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId4"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <legacyDrawingHF r:id="rId6"/>
   <oleObjects>
-    <oleObject progId="Equation.DSMT4" shapeId="11265" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Equation.DSMT4" shapeId="11265" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>2181225</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Equation.DSMT4" shapeId="11265" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A2:Q2"/>
   <sheetViews>
@@ -40544,7 +40709,7 @@
       <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.75" customWidth="1" style="171"/>
     <col min="2" max="2" width="8.75" customWidth="1" style="171"/>
@@ -40565,7 +40730,7 @@
   <sheetData>
     <row r="2" ht="24.75">
       <c r="A2" s="307" t="s">
-        <v>386</v>
+        <v>231</v>
       </c>
       <c r="B2" s="307"/>
       <c r="C2" s="307"/>
@@ -40590,7 +40755,7 @@
     <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -40602,12 +40767,12 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -40615,12 +40780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -40628,12 +40793,12 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -40641,7 +40806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M76"/>
   <sheetViews>
@@ -40650,7 +40815,7 @@
       <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="232"/>
     <col min="2" max="2" width="8.125" customWidth="1" style="233"/>
@@ -43041,7 +43206,7 @@
     <mergeCell ref="A74:M74"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="80" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -43052,7 +43217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M65"/>
   <sheetViews>
@@ -43061,7 +43226,7 @@
       <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.75" customWidth="1" style="233"/>
@@ -44903,7 +45068,7 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="84" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -44914,7 +45079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L98"/>
   <sheetViews>
@@ -44923,7 +45088,7 @@
       <selection pane="bottomLeft" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="11.125" customWidth="1" style="233"/>
@@ -45055,7 +45220,7 @@
       <c r="J9" s="296"/>
     </row>
     <row r="10">
-      <c r="A10" s="301" t="s">
+      <c r="A10" s="303" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="302" t="s">
@@ -45070,12 +45235,12 @@
       <c r="G10" s="302"/>
       <c r="H10" s="302"/>
       <c r="I10" s="302"/>
-      <c r="J10" s="303" t="s">
+      <c r="J10" s="304" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="301"/>
+      <c r="A11" s="303"/>
       <c r="B11" s="253" t="s">
         <v>11</v>
       </c>
@@ -45100,7 +45265,7 @@
       <c r="I11" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="303"/>
+      <c r="J11" s="304"/>
     </row>
     <row r="12">
       <c r="A12" s="267" t="s">
@@ -45567,7 +45732,7 @@
       <c r="J37" s="296"/>
     </row>
     <row r="38">
-      <c r="A38" s="301" t="s">
+      <c r="A38" s="303" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="302" t="s">
@@ -45582,12 +45747,12 @@
       <c r="G38" s="302"/>
       <c r="H38" s="302"/>
       <c r="I38" s="302"/>
-      <c r="J38" s="303" t="s">
+      <c r="J38" s="304" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="301"/>
+      <c r="A39" s="303"/>
       <c r="B39" s="253" t="s">
         <v>11</v>
       </c>
@@ -45612,7 +45777,7 @@
       <c r="I39" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="303"/>
+      <c r="J39" s="304"/>
     </row>
     <row r="40">
       <c r="A40" s="267" t="s">
@@ -46328,7 +46493,7 @@
       <c r="C86" s="233"/>
     </row>
     <row r="87">
-      <c r="A87" s="304" t="s">
+      <c r="A87" s="301" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="302" t="s">
@@ -46345,7 +46510,7 @@
       <c r="I87" s="302"/>
     </row>
     <row r="88">
-      <c r="A88" s="304"/>
+      <c r="A88" s="301"/>
       <c r="B88" s="253" t="s">
         <v>11</v>
       </c>
@@ -46502,6 +46667,16 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:E87"/>
     <mergeCell ref="F87:I87"/>
@@ -46518,19 +46693,9 @@
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="A49:J49"/>
     <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A22:J22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="88" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="85" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -46541,7 +46706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N93"/>
   <sheetViews>
@@ -46550,7 +46715,7 @@
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.125" customWidth="1" style="233"/>
@@ -46596,7 +46761,7 @@
     </row>
     <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="240" t="s">
-        <v>231</v>
+        <v>388</v>
       </c>
       <c r="B3" s="241"/>
       <c r="C3" s="241"/>
@@ -46613,7 +46778,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1">
       <c r="A4" s="296" t="s">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="B4" s="296"/>
       <c r="C4" s="296"/>
@@ -46630,51 +46795,51 @@
     </row>
     <row r="5" ht="34.5" customHeight="1" s="265" customFormat="1">
       <c r="A5" s="261" t="s">
-        <v>233</v>
+        <v>390</v>
       </c>
       <c r="B5" s="262" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="C5" s="263" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="262" t="s">
-        <v>235</v>
+        <v>392</v>
       </c>
       <c r="E5" s="264" t="s">
-        <v>236</v>
+        <v>393</v>
       </c>
       <c r="F5" s="263" t="s">
-        <v>237</v>
+        <v>394</v>
       </c>
       <c r="G5" s="263" t="s">
-        <v>238</v>
+        <v>395</v>
       </c>
       <c r="H5" s="264" t="s">
-        <v>239</v>
+        <v>396</v>
       </c>
       <c r="I5" s="264" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="J5" s="262" t="s">
-        <v>241</v>
+        <v>398</v>
       </c>
       <c r="K5" s="262" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="L5" s="262" t="s">
-        <v>243</v>
+        <v>400</v>
       </c>
       <c r="M5" s="262" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="N5" s="263" t="s">
-        <v>245</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="267" t="s">
-        <v>246</v>
+        <v>403</v>
       </c>
       <c r="B6" s="308"/>
       <c r="C6" s="311"/>
@@ -46692,7 +46857,7 @@
     </row>
     <row r="7">
       <c r="A7" s="267" t="s">
-        <v>247</v>
+        <v>404</v>
       </c>
       <c r="B7" s="308"/>
       <c r="C7" s="311"/>
@@ -46710,23 +46875,23 @@
     </row>
     <row r="8">
       <c r="A8" s="244" t="s">
-        <v>248</v>
+        <v>405</v>
       </c>
       <c r="B8" s="314">
         <v>0</v>
       </c>
       <c r="C8" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D8" s="314"/>
       <c r="E8" s="317">
         <v>1</v>
       </c>
       <c r="F8" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G8" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H8" s="317"/>
       <c r="I8" s="314"/>
@@ -46743,18 +46908,18 @@
         <v>0</v>
       </c>
       <c r="N8" s="266" t="s">
-        <v>252</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="244" t="s">
-        <v>253</v>
+        <v>410</v>
       </c>
       <c r="B9" s="314">
         <v>0.07999999797903</v>
       </c>
       <c r="C9" s="237" t="s">
-        <v>254</v>
+        <v>411</v>
       </c>
       <c r="D9" s="314">
         <v>0</v>
@@ -46763,7 +46928,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G9" s="237" t="s">
         <v>11</v>
@@ -46783,12 +46948,12 @@
         <v>-0.07459103</v>
       </c>
       <c r="N9" s="266" t="s">
-        <v>256</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="267" t="s">
-        <v>257</v>
+        <v>414</v>
       </c>
       <c r="B10" s="308"/>
       <c r="C10" s="311"/>
@@ -46806,7 +46971,7 @@
     </row>
     <row r="11">
       <c r="A11" s="267" t="s">
-        <v>258</v>
+        <v>415</v>
       </c>
       <c r="B11" s="308"/>
       <c r="C11" s="311"/>
@@ -46824,23 +46989,23 @@
     </row>
     <row r="12">
       <c r="A12" s="244" t="s">
-        <v>259</v>
+        <v>416</v>
       </c>
       <c r="B12" s="314">
         <v>1.012</v>
       </c>
       <c r="C12" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D12" s="314"/>
       <c r="E12" s="317">
         <v>120</v>
       </c>
       <c r="F12" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G12" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H12" s="317"/>
       <c r="I12" s="314"/>
@@ -46857,28 +47022,28 @@
         <v>0.35687093999999997</v>
       </c>
       <c r="N12" s="266" t="s">
-        <v>260</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="244" t="s">
-        <v>261</v>
+        <v>418</v>
       </c>
       <c r="B13" s="314">
         <v>0</v>
       </c>
       <c r="C13" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D13" s="314"/>
       <c r="E13" s="317">
         <v>0</v>
       </c>
       <c r="F13" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G13" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H13" s="317"/>
       <c r="I13" s="314"/>
@@ -46895,28 +47060,28 @@
         <v>0</v>
       </c>
       <c r="N13" s="266" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="244" t="s">
-        <v>263</v>
+        <v>420</v>
       </c>
       <c r="B14" s="314">
         <v>0.95</v>
       </c>
       <c r="C14" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D14" s="314"/>
       <c r="E14" s="317">
         <v>120</v>
       </c>
       <c r="F14" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G14" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H14" s="317"/>
       <c r="I14" s="314"/>
@@ -46933,28 +47098,28 @@
         <v>0.2941795</v>
       </c>
       <c r="N14" s="266" t="s">
-        <v>264</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="244" t="s">
-        <v>265</v>
+        <v>422</v>
       </c>
       <c r="B15" s="314">
         <v>0</v>
       </c>
       <c r="C15" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D15" s="314"/>
       <c r="E15" s="317">
         <v>0</v>
       </c>
       <c r="F15" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G15" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H15" s="317"/>
       <c r="I15" s="314"/>
@@ -46971,12 +47136,12 @@
         <v>0</v>
       </c>
       <c r="N15" s="266" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="267" t="s">
-        <v>266</v>
+        <v>423</v>
       </c>
       <c r="B16" s="308"/>
       <c r="C16" s="311"/>
@@ -46994,7 +47159,7 @@
     </row>
     <row r="17">
       <c r="A17" s="267" t="s">
-        <v>267</v>
+        <v>424</v>
       </c>
       <c r="B17" s="308"/>
       <c r="C17" s="311"/>
@@ -47012,13 +47177,13 @@
     </row>
     <row r="18">
       <c r="A18" s="244" t="s">
-        <v>268</v>
+        <v>425</v>
       </c>
       <c r="B18" s="314">
         <v>1.19774999958277</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D18" s="314">
         <v>0.652</v>
@@ -47027,10 +47192,10 @@
         <v>360</v>
       </c>
       <c r="F18" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G18" s="237" t="s">
-        <v>270</v>
+        <v>427</v>
       </c>
       <c r="H18" s="317">
         <v>720</v>
@@ -47051,28 +47216,28 @@
         <v>0.67566342</v>
       </c>
       <c r="N18" s="266" t="s">
-        <v>271</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="244" t="s">
-        <v>272</v>
+        <v>429</v>
       </c>
       <c r="B19" s="314">
         <v>1.55</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D19" s="314"/>
       <c r="E19" s="317">
         <v>360</v>
       </c>
       <c r="F19" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G19" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H19" s="317">
         <v>720</v>
@@ -47093,28 +47258,28 @@
         <v>0.69908167999999993</v>
       </c>
       <c r="N19" s="266" t="s">
-        <v>273</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="244" t="s">
-        <v>274</v>
+        <v>431</v>
       </c>
       <c r="B20" s="314">
         <v>0</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D20" s="314"/>
       <c r="E20" s="317">
         <v>0</v>
       </c>
       <c r="F20" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G20" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H20" s="317"/>
       <c r="I20" s="314"/>
@@ -47131,12 +47296,12 @@
         <v>0</v>
       </c>
       <c r="N20" s="266" t="s">
-        <v>262</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="267" t="s">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="B21" s="308"/>
       <c r="C21" s="311"/>
@@ -47154,7 +47319,7 @@
     </row>
     <row r="22">
       <c r="A22" s="267" t="s">
-        <v>276</v>
+        <v>433</v>
       </c>
       <c r="B22" s="308"/>
       <c r="C22" s="311"/>
@@ -47172,7 +47337,7 @@
     </row>
     <row r="23">
       <c r="A23" s="267" t="s">
-        <v>277</v>
+        <v>434</v>
       </c>
       <c r="B23" s="308"/>
       <c r="C23" s="311"/>
@@ -47190,23 +47355,23 @@
     </row>
     <row r="24">
       <c r="A24" s="244" t="s">
-        <v>278</v>
+        <v>435</v>
       </c>
       <c r="B24" s="314">
         <v>4.5</v>
       </c>
       <c r="C24" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D24" s="314"/>
       <c r="E24" s="317">
         <v>36</v>
       </c>
       <c r="F24" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G24" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H24" s="317">
         <v>720</v>
@@ -47227,18 +47392,18 @@
         <v>3.8680331800000003</v>
       </c>
       <c r="N24" s="266" t="s">
-        <v>279</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="244" t="s">
-        <v>280</v>
+        <v>437</v>
       </c>
       <c r="B25" s="314">
         <v>3.95</v>
       </c>
       <c r="C25" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D25" s="314">
         <v>3.79000000404194</v>
@@ -47247,7 +47412,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G25" s="237" t="s">
         <v>13</v>
@@ -47271,18 +47436,18 @@
         <v>3.3265910099999996</v>
       </c>
       <c r="N25" s="266" t="s">
-        <v>282</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="244" t="s">
-        <v>283</v>
+        <v>440</v>
       </c>
       <c r="B26" s="314">
         <v>3.95</v>
       </c>
       <c r="C26" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D26" s="314">
         <v>3.40425000041723</v>
@@ -47291,7 +47456,7 @@
         <v>36</v>
       </c>
       <c r="F26" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G26" s="237" t="s">
         <v>13</v>
@@ -47315,18 +47480,18 @@
         <v>3.2710573399999996</v>
       </c>
       <c r="N26" s="266" t="s">
-        <v>284</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="244" t="s">
-        <v>285</v>
+        <v>442</v>
       </c>
       <c r="B27" s="314">
         <v>3.95</v>
       </c>
       <c r="C27" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D27" s="314">
         <v>0.700000119209291</v>
@@ -47335,7 +47500,7 @@
         <v>36</v>
       </c>
       <c r="F27" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G27" s="237" t="s">
         <v>13</v>
@@ -47359,18 +47524,18 @@
         <v>3.3359521599999997</v>
       </c>
       <c r="N27" s="266" t="s">
-        <v>287</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="244" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="B28" s="314">
-        <v>3.95</v>
+        <v>3.8769999563694</v>
       </c>
       <c r="C28" s="237" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="D28" s="314">
         <v>3.19499997869134</v>
@@ -47379,7 +47544,7 @@
         <v>36</v>
       </c>
       <c r="F28" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G28" s="237" t="s">
         <v>13</v>
@@ -47403,18 +47568,18 @@
         <v>3.5423101999999997</v>
       </c>
       <c r="N28" s="266" t="s">
-        <v>290</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="244" t="s">
-        <v>291</v>
+        <v>447</v>
       </c>
       <c r="B29" s="314">
         <v>3.35</v>
       </c>
       <c r="C29" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D29" s="314">
         <v>3.19000000404194</v>
@@ -47423,7 +47588,7 @@
         <v>180</v>
       </c>
       <c r="F29" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G29" s="237" t="s">
         <v>13</v>
@@ -47447,18 +47612,18 @@
         <v>2.43639407</v>
       </c>
       <c r="N29" s="266" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="244" t="s">
-        <v>293</v>
+        <v>449</v>
       </c>
       <c r="B30" s="314">
         <v>3.35</v>
       </c>
       <c r="C30" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D30" s="314">
         <v>0.100000119209291</v>
@@ -47467,7 +47632,7 @@
         <v>180</v>
       </c>
       <c r="F30" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G30" s="237" t="s">
         <v>13</v>
@@ -47491,28 +47656,28 @@
         <v>2.43854364</v>
       </c>
       <c r="N30" s="266" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="244" t="s">
-        <v>295</v>
+        <v>451</v>
       </c>
       <c r="B31" s="314">
         <v>3.5</v>
       </c>
       <c r="C31" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D31" s="314"/>
       <c r="E31" s="317">
         <v>360</v>
       </c>
       <c r="F31" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G31" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H31" s="317">
         <v>720</v>
@@ -47533,12 +47698,12 @@
         <v>1.83118561</v>
       </c>
       <c r="N31" s="266" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="267" t="s">
-        <v>297</v>
+        <v>453</v>
       </c>
       <c r="B32" s="308"/>
       <c r="C32" s="311"/>
@@ -47556,13 +47721,13 @@
     </row>
     <row r="33">
       <c r="A33" s="244" t="s">
-        <v>298</v>
+        <v>454</v>
       </c>
       <c r="B33" s="314">
         <v>3.35</v>
       </c>
       <c r="C33" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D33" s="314">
         <v>0.100000119209291</v>
@@ -47571,7 +47736,7 @@
         <v>180</v>
       </c>
       <c r="F33" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G33" s="237" t="s">
         <v>13</v>
@@ -47595,12 +47760,12 @@
         <v>2.51893697</v>
       </c>
       <c r="N33" s="266" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="267" t="s">
-        <v>300</v>
+        <v>456</v>
       </c>
       <c r="B34" s="308"/>
       <c r="C34" s="311"/>
@@ -47618,13 +47783,13 @@
     </row>
     <row r="35">
       <c r="A35" s="244" t="s">
-        <v>301</v>
+        <v>457</v>
       </c>
       <c r="B35" s="314">
         <v>2.61925000604242</v>
       </c>
       <c r="C35" s="237" t="s">
-        <v>302</v>
+        <v>458</v>
       </c>
       <c r="D35" s="314">
         <v>2.25</v>
@@ -47633,7 +47798,7 @@
         <v>360</v>
       </c>
       <c r="F35" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G35" s="237" t="s">
         <v>12</v>
@@ -47657,18 +47822,18 @@
         <v>1.98818859</v>
       </c>
       <c r="N35" s="266" t="s">
-        <v>303</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="244" t="s">
-        <v>304</v>
+        <v>460</v>
       </c>
       <c r="B36" s="314">
         <v>2.79574999958277</v>
       </c>
       <c r="C36" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D36" s="314">
         <v>2.25</v>
@@ -47677,7 +47842,7 @@
         <v>360</v>
       </c>
       <c r="F36" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G36" s="237" t="s">
         <v>13</v>
@@ -47701,18 +47866,18 @@
         <v>2.2052812299999998</v>
       </c>
       <c r="N36" s="266" t="s">
-        <v>305</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="244" t="s">
-        <v>306</v>
+        <v>462</v>
       </c>
       <c r="B37" s="314">
         <v>2.90999999595806</v>
       </c>
       <c r="C37" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D37" s="314">
         <v>2.75</v>
@@ -47721,7 +47886,7 @@
         <v>360</v>
       </c>
       <c r="F37" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G37" s="237" t="s">
         <v>13</v>
@@ -47745,18 +47910,18 @@
         <v>2.56311142</v>
       </c>
       <c r="N37" s="266" t="s">
-        <v>307</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="244" t="s">
-        <v>308</v>
+        <v>464</v>
       </c>
       <c r="B38" s="314">
         <v>3.03999999631196</v>
       </c>
       <c r="C38" s="237" t="s">
-        <v>309</v>
+        <v>465</v>
       </c>
       <c r="D38" s="314">
         <v>2.75</v>
@@ -47765,7 +47930,7 @@
         <v>360</v>
       </c>
       <c r="F38" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G38" s="237" t="s">
         <v>128</v>
@@ -47789,18 +47954,18 @@
         <v>2.5920188</v>
       </c>
       <c r="N38" s="266" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="244" t="s">
-        <v>311</v>
+        <v>467</v>
       </c>
       <c r="B39" s="314">
         <v>2.92999999690801</v>
       </c>
       <c r="C39" s="237" t="s">
-        <v>312</v>
+        <v>468</v>
       </c>
       <c r="D39" s="314">
         <v>2.75</v>
@@ -47809,7 +47974,7 @@
         <v>360</v>
       </c>
       <c r="F39" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G39" s="237" t="s">
         <v>127</v>
@@ -47833,18 +47998,18 @@
         <v>2.61220783</v>
       </c>
       <c r="N39" s="266" t="s">
-        <v>313</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="244" t="s">
-        <v>314</v>
+        <v>470</v>
       </c>
       <c r="B40" s="314">
         <v>2.90999999595806</v>
       </c>
       <c r="C40" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D40" s="314">
         <v>2.75</v>
@@ -47853,10 +48018,10 @@
         <v>360</v>
       </c>
       <c r="F40" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G40" s="237" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="H40" s="317">
         <v>720</v>
@@ -47877,18 +48042,18 @@
         <v>2.60429639</v>
       </c>
       <c r="N40" s="266" t="s">
-        <v>316</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="244" t="s">
-        <v>317</v>
+        <v>473</v>
       </c>
       <c r="B41" s="314">
         <v>3.35</v>
       </c>
       <c r="C41" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D41" s="314">
         <v>0.100000119209291</v>
@@ -47897,7 +48062,7 @@
         <v>180</v>
       </c>
       <c r="F41" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G41" s="237" t="s">
         <v>13</v>
@@ -47921,18 +48086,18 @@
         <v>2.51893697</v>
       </c>
       <c r="N41" s="266" t="s">
-        <v>299</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="244" t="s">
-        <v>318</v>
+        <v>474</v>
       </c>
       <c r="B42" s="314">
         <v>3.35</v>
       </c>
       <c r="C42" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D42" s="314">
         <v>3.19000000404194</v>
@@ -47941,7 +48106,7 @@
         <v>180</v>
       </c>
       <c r="F42" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G42" s="237" t="s">
         <v>13</v>
@@ -47965,18 +48130,18 @@
         <v>2.51833523</v>
       </c>
       <c r="N42" s="266" t="s">
-        <v>319</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="244" t="s">
-        <v>320</v>
+        <v>476</v>
       </c>
       <c r="B43" s="314">
         <v>3.35</v>
       </c>
       <c r="C43" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D43" s="314">
         <v>2.80425000041723</v>
@@ -47985,7 +48150,7 @@
         <v>180</v>
       </c>
       <c r="F43" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G43" s="237" t="s">
         <v>13</v>
@@ -48009,28 +48174,28 @@
         <v>2.44343371</v>
       </c>
       <c r="N43" s="266" t="s">
-        <v>321</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="244" t="s">
-        <v>322</v>
+        <v>478</v>
       </c>
       <c r="B44" s="314">
         <v>3.5</v>
       </c>
       <c r="C44" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D44" s="314"/>
       <c r="E44" s="317">
         <v>180</v>
       </c>
       <c r="F44" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G44" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H44" s="317">
         <v>720</v>
@@ -48051,12 +48216,12 @@
         <v>2.5087040099999998</v>
       </c>
       <c r="N44" s="266" t="s">
-        <v>323</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="267" t="s">
-        <v>324</v>
+        <v>480</v>
       </c>
       <c r="B45" s="308"/>
       <c r="C45" s="311"/>
@@ -48074,13 +48239,13 @@
     </row>
     <row r="46">
       <c r="A46" s="244" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="B46" s="314">
         <v>3.35</v>
       </c>
       <c r="C46" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D46" s="314">
         <v>3.19000000404194</v>
@@ -48089,7 +48254,7 @@
         <v>180</v>
       </c>
       <c r="F46" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G46" s="237" t="s">
         <v>13</v>
@@ -48113,18 +48278,18 @@
         <v>2.43639407</v>
       </c>
       <c r="N46" s="266" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="244" t="s">
-        <v>326</v>
+        <v>482</v>
       </c>
       <c r="B47" s="314">
         <v>3.35</v>
       </c>
       <c r="C47" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D47" s="314">
         <v>0.100000119209291</v>
@@ -48133,7 +48298,7 @@
         <v>180</v>
       </c>
       <c r="F47" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G47" s="237" t="s">
         <v>13</v>
@@ -48157,28 +48322,28 @@
         <v>2.43854364</v>
       </c>
       <c r="N47" s="266" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="244" t="s">
-        <v>327</v>
+        <v>483</v>
       </c>
       <c r="B48" s="314">
         <v>3.5</v>
       </c>
       <c r="C48" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D48" s="314"/>
       <c r="E48" s="317">
         <v>360</v>
       </c>
       <c r="F48" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G48" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H48" s="317">
         <v>720</v>
@@ -48199,28 +48364,28 @@
         <v>1.83118561</v>
       </c>
       <c r="N48" s="266" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="244" t="s">
-        <v>328</v>
+        <v>484</v>
       </c>
       <c r="B49" s="314">
         <v>3.35</v>
       </c>
       <c r="C49" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D49" s="314"/>
       <c r="E49" s="317">
         <v>84</v>
       </c>
       <c r="F49" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G49" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H49" s="317">
         <v>720</v>
@@ -48241,18 +48406,18 @@
         <v>2.3107903199999997</v>
       </c>
       <c r="N49" s="266" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="244" t="s">
-        <v>330</v>
+        <v>486</v>
       </c>
       <c r="B50" s="314">
         <v>3.35</v>
       </c>
       <c r="C50" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D50" s="314">
         <v>3.19000000404194</v>
@@ -48261,7 +48426,7 @@
         <v>180</v>
       </c>
       <c r="F50" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G50" s="237" t="s">
         <v>13</v>
@@ -48285,18 +48450,18 @@
         <v>2.43639407</v>
       </c>
       <c r="N50" s="266" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="244" t="s">
-        <v>331</v>
+        <v>487</v>
       </c>
       <c r="B51" s="314">
         <v>3.35</v>
       </c>
       <c r="C51" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D51" s="314">
         <v>0.100000119209291</v>
@@ -48305,7 +48470,7 @@
         <v>180</v>
       </c>
       <c r="F51" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G51" s="237" t="s">
         <v>13</v>
@@ -48329,28 +48494,28 @@
         <v>2.43854364</v>
       </c>
       <c r="N51" s="266" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="244" t="s">
-        <v>332</v>
+        <v>488</v>
       </c>
       <c r="B52" s="314">
         <v>3.5</v>
       </c>
       <c r="C52" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D52" s="314"/>
       <c r="E52" s="317">
         <v>360</v>
       </c>
       <c r="F52" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G52" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H52" s="317">
         <v>720</v>
@@ -48371,28 +48536,28 @@
         <v>1.83118561</v>
       </c>
       <c r="N52" s="266" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="244" t="s">
-        <v>333</v>
+        <v>489</v>
       </c>
       <c r="B53" s="314">
         <v>3.35</v>
       </c>
       <c r="C53" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D53" s="314"/>
       <c r="E53" s="317">
         <v>84</v>
       </c>
       <c r="F53" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G53" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H53" s="317">
         <v>720</v>
@@ -48413,18 +48578,18 @@
         <v>2.3107903199999997</v>
       </c>
       <c r="N53" s="266" t="s">
-        <v>329</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="244" t="s">
-        <v>334</v>
+        <v>490</v>
       </c>
       <c r="B54" s="314">
         <v>3.35</v>
       </c>
       <c r="C54" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D54" s="314">
         <v>2.80425000041723</v>
@@ -48433,7 +48598,7 @@
         <v>180</v>
       </c>
       <c r="F54" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G54" s="237" t="s">
         <v>13</v>
@@ -48457,18 +48622,18 @@
         <v>2.3073614</v>
       </c>
       <c r="N54" s="266" t="s">
-        <v>335</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="244" t="s">
-        <v>336</v>
+        <v>492</v>
       </c>
       <c r="B55" s="314">
         <v>3.35</v>
       </c>
       <c r="C55" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D55" s="314">
         <v>0.100000119209291</v>
@@ -48477,7 +48642,7 @@
         <v>180</v>
       </c>
       <c r="F55" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G55" s="237" t="s">
         <v>13</v>
@@ -48501,18 +48666,18 @@
         <v>2.43854364</v>
       </c>
       <c r="N55" s="266" t="s">
-        <v>294</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="244" t="s">
-        <v>337</v>
+        <v>493</v>
       </c>
       <c r="B56" s="314">
         <v>3.35</v>
       </c>
       <c r="C56" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D56" s="314">
         <v>3.19000000404194</v>
@@ -48521,7 +48686,7 @@
         <v>180</v>
       </c>
       <c r="F56" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G56" s="237" t="s">
         <v>13</v>
@@ -48545,28 +48710,28 @@
         <v>2.43639407</v>
       </c>
       <c r="N56" s="266" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="244" t="s">
-        <v>338</v>
+        <v>494</v>
       </c>
       <c r="B57" s="314">
         <v>3.5</v>
       </c>
       <c r="C57" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D57" s="314"/>
       <c r="E57" s="317">
         <v>360</v>
       </c>
       <c r="F57" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G57" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H57" s="317">
         <v>720</v>
@@ -48587,28 +48752,28 @@
         <v>1.83118561</v>
       </c>
       <c r="N57" s="266" t="s">
-        <v>296</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="244" t="s">
-        <v>339</v>
+        <v>495</v>
       </c>
       <c r="B58" s="314">
         <v>3.5</v>
       </c>
       <c r="C58" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D58" s="314"/>
       <c r="E58" s="317">
         <v>60</v>
       </c>
       <c r="F58" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G58" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H58" s="317">
         <v>720</v>
@@ -48629,18 +48794,18 @@
         <v>2.89293152</v>
       </c>
       <c r="N58" s="266" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="244" t="s">
-        <v>341</v>
+        <v>497</v>
       </c>
       <c r="B59" s="314">
         <v>3.35</v>
       </c>
       <c r="C59" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D59" s="314">
         <v>2.80425000041723</v>
@@ -48649,7 +48814,7 @@
         <v>60</v>
       </c>
       <c r="F59" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G59" s="237" t="s">
         <v>13</v>
@@ -48673,18 +48838,18 @@
         <v>2.79050381</v>
       </c>
       <c r="N59" s="266" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="244" t="s">
-        <v>343</v>
+        <v>499</v>
       </c>
       <c r="B60" s="314">
         <v>3.35</v>
       </c>
       <c r="C60" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D60" s="314">
         <v>0.100000119209291</v>
@@ -48693,7 +48858,7 @@
         <v>60</v>
       </c>
       <c r="F60" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G60" s="237" t="s">
         <v>13</v>
@@ -48717,18 +48882,18 @@
         <v>2.8531907</v>
       </c>
       <c r="N60" s="266" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="244" t="s">
-        <v>345</v>
+        <v>501</v>
       </c>
       <c r="B61" s="314">
         <v>3.35</v>
       </c>
       <c r="C61" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D61" s="314">
         <v>3.19000000404194</v>
@@ -48737,7 +48902,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G61" s="237" t="s">
         <v>13</v>
@@ -48761,12 +48926,12 @@
         <v>2.85959229</v>
       </c>
       <c r="N61" s="266" t="s">
-        <v>346</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="267" t="s">
-        <v>347</v>
+        <v>503</v>
       </c>
       <c r="B62" s="308"/>
       <c r="C62" s="311"/>
@@ -48784,23 +48949,23 @@
     </row>
     <row r="63">
       <c r="A63" s="244" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="B63" s="314">
         <v>4.225</v>
       </c>
       <c r="C63" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D63" s="314"/>
       <c r="E63" s="317">
         <v>60</v>
       </c>
       <c r="F63" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G63" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H63" s="317">
         <v>720</v>
@@ -48821,28 +48986,28 @@
         <v>3.42349512</v>
       </c>
       <c r="N63" s="266" t="s">
-        <v>349</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="244" t="s">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="B64" s="314">
         <v>9</v>
       </c>
       <c r="C64" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D64" s="314"/>
       <c r="E64" s="317">
         <v>24</v>
       </c>
       <c r="F64" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G64" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H64" s="317">
         <v>720</v>
@@ -48863,18 +49028,18 @@
         <v>5.22443241</v>
       </c>
       <c r="N64" s="266" t="s">
-        <v>351</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="244" t="s">
-        <v>352</v>
+        <v>508</v>
       </c>
       <c r="B65" s="314">
         <v>3.35</v>
       </c>
       <c r="C65" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D65" s="314">
         <v>2.80425000041723</v>
@@ -48883,7 +49048,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G65" s="237" t="s">
         <v>13</v>
@@ -48907,18 +49072,18 @@
         <v>2.79050381</v>
       </c>
       <c r="N65" s="266" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="244" t="s">
-        <v>353</v>
+        <v>509</v>
       </c>
       <c r="B66" s="314">
         <v>3.35</v>
       </c>
       <c r="C66" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D66" s="314">
         <v>0.100000119209291</v>
@@ -48927,7 +49092,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G66" s="237" t="s">
         <v>13</v>
@@ -48951,18 +49116,18 @@
         <v>2.8531907</v>
       </c>
       <c r="N66" s="266" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="244" t="s">
-        <v>354</v>
+        <v>510</v>
       </c>
       <c r="B67" s="314">
         <v>3.35</v>
       </c>
       <c r="C67" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D67" s="314">
         <v>3.19000000404194</v>
@@ -48971,7 +49136,7 @@
         <v>60</v>
       </c>
       <c r="F67" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G67" s="237" t="s">
         <v>13</v>
@@ -48995,28 +49160,28 @@
         <v>2.85959229</v>
       </c>
       <c r="N67" s="266" t="s">
-        <v>346</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="244" t="s">
-        <v>355</v>
+        <v>511</v>
       </c>
       <c r="B68" s="314">
         <v>3.5</v>
       </c>
       <c r="C68" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D68" s="314"/>
       <c r="E68" s="317">
         <v>60</v>
       </c>
       <c r="F68" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G68" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H68" s="317">
         <v>720</v>
@@ -49037,12 +49202,12 @@
         <v>2.89293152</v>
       </c>
       <c r="N68" s="266" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="267" t="s">
-        <v>356</v>
+        <v>512</v>
       </c>
       <c r="B69" s="308"/>
       <c r="C69" s="311"/>
@@ -49060,13 +49225,13 @@
     </row>
     <row r="70">
       <c r="A70" s="244" t="s">
-        <v>357</v>
+        <v>513</v>
       </c>
       <c r="B70" s="314">
         <v>3.35</v>
       </c>
       <c r="C70" s="237" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D70" s="314">
         <v>2.80425000041723</v>
@@ -49075,7 +49240,7 @@
         <v>60</v>
       </c>
       <c r="F70" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G70" s="237" t="s">
         <v>13</v>
@@ -49099,18 +49264,18 @@
         <v>2.79050381</v>
       </c>
       <c r="N70" s="266" t="s">
-        <v>342</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="244" t="s">
-        <v>358</v>
+        <v>514</v>
       </c>
       <c r="B71" s="314">
         <v>3.35</v>
       </c>
       <c r="C71" s="237" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
       <c r="D71" s="314">
         <v>0.100000119209291</v>
@@ -49119,7 +49284,7 @@
         <v>60</v>
       </c>
       <c r="F71" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G71" s="237" t="s">
         <v>13</v>
@@ -49143,18 +49308,18 @@
         <v>2.8531907</v>
       </c>
       <c r="N71" s="266" t="s">
-        <v>344</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="244" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
       <c r="B72" s="314">
         <v>3.35</v>
       </c>
       <c r="C72" s="237" t="s">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="D72" s="314">
         <v>3.19000000404194</v>
@@ -49163,7 +49328,7 @@
         <v>60</v>
       </c>
       <c r="F72" s="237" t="s">
-        <v>255</v>
+        <v>412</v>
       </c>
       <c r="G72" s="237" t="s">
         <v>13</v>
@@ -49187,28 +49352,28 @@
         <v>2.85959229</v>
       </c>
       <c r="N72" s="266" t="s">
-        <v>346</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="244" t="s">
-        <v>360</v>
+        <v>516</v>
       </c>
       <c r="B73" s="314">
         <v>3.5</v>
       </c>
       <c r="C73" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D73" s="314"/>
       <c r="E73" s="317">
         <v>60</v>
       </c>
       <c r="F73" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G73" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H73" s="317">
         <v>720</v>
@@ -49229,12 +49394,12 @@
         <v>2.89293152</v>
       </c>
       <c r="N73" s="266" t="s">
-        <v>340</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="267" t="s">
-        <v>361</v>
+        <v>517</v>
       </c>
       <c r="B74" s="308"/>
       <c r="C74" s="311"/>
@@ -49252,23 +49417,23 @@
     </row>
     <row r="75">
       <c r="A75" s="244" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="B75" s="314">
         <v>0</v>
       </c>
       <c r="C75" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D75" s="314"/>
       <c r="E75" s="317">
         <v>0</v>
       </c>
       <c r="F75" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G75" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H75" s="317"/>
       <c r="I75" s="314"/>
@@ -49285,28 +49450,28 @@
         <v>0</v>
       </c>
       <c r="N75" s="266" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="244" t="s">
-        <v>364</v>
+        <v>520</v>
       </c>
       <c r="B76" s="314">
         <v>0</v>
       </c>
       <c r="C76" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D76" s="314"/>
       <c r="E76" s="317">
         <v>0</v>
       </c>
       <c r="F76" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G76" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H76" s="317"/>
       <c r="I76" s="314"/>
@@ -49323,28 +49488,28 @@
         <v>0</v>
       </c>
       <c r="N76" s="266" t="s">
-        <v>363</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="244" t="s">
-        <v>365</v>
+        <v>521</v>
       </c>
       <c r="B77" s="314">
         <v>0</v>
       </c>
       <c r="C77" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D77" s="314"/>
       <c r="E77" s="317">
         <v>0</v>
       </c>
       <c r="F77" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G77" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H77" s="317"/>
       <c r="I77" s="314"/>
@@ -49361,12 +49526,12 @@
         <v>0</v>
       </c>
       <c r="N77" s="266" t="s">
-        <v>366</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="267" t="s">
-        <v>367</v>
+        <v>523</v>
       </c>
       <c r="B78" s="308"/>
       <c r="C78" s="311"/>
@@ -49384,7 +49549,7 @@
     </row>
     <row r="79">
       <c r="A79" s="267" t="s">
-        <v>368</v>
+        <v>524</v>
       </c>
       <c r="B79" s="308"/>
       <c r="C79" s="311"/>
@@ -49402,23 +49567,23 @@
     </row>
     <row r="80">
       <c r="A80" s="244" t="s">
-        <v>369</v>
+        <v>525</v>
       </c>
       <c r="B80" s="314">
         <v>0.2290112616</v>
       </c>
       <c r="C80" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D80" s="314"/>
       <c r="E80" s="317">
         <v>3</v>
       </c>
       <c r="F80" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G80" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H80" s="317"/>
       <c r="I80" s="314"/>
@@ -49427,28 +49592,28 @@
       <c r="L80" s="322"/>
       <c r="M80" s="322"/>
       <c r="N80" s="266" t="s">
-        <v>370</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="244" t="s">
-        <v>371</v>
+        <v>527</v>
       </c>
       <c r="B81" s="314">
         <v>0.282891504</v>
       </c>
       <c r="C81" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D81" s="314"/>
       <c r="E81" s="317">
         <v>12</v>
       </c>
       <c r="F81" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G81" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H81" s="317"/>
       <c r="I81" s="314"/>
@@ -49457,28 +49622,28 @@
       <c r="L81" s="322"/>
       <c r="M81" s="322"/>
       <c r="N81" s="266" t="s">
-        <v>372</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="244" t="s">
-        <v>373</v>
+        <v>529</v>
       </c>
       <c r="B82" s="314">
         <v>0.3229659768</v>
       </c>
       <c r="C82" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D82" s="314"/>
       <c r="E82" s="317">
         <v>36</v>
       </c>
       <c r="F82" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G82" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H82" s="317"/>
       <c r="I82" s="314"/>
@@ -49487,28 +49652,28 @@
       <c r="L82" s="322"/>
       <c r="M82" s="322"/>
       <c r="N82" s="266" t="s">
-        <v>374</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="244" t="s">
-        <v>375</v>
+        <v>531</v>
       </c>
       <c r="B83" s="314">
         <v>0.4139762304</v>
       </c>
       <c r="C83" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D83" s="314"/>
       <c r="E83" s="317">
         <v>60</v>
       </c>
       <c r="F83" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G83" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H83" s="317"/>
       <c r="I83" s="314"/>
@@ -49517,26 +49682,26 @@
       <c r="L83" s="322"/>
       <c r="M83" s="322"/>
       <c r="N83" s="266" t="s">
-        <v>376</v>
+        <v>532</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="244" t="s">
-        <v>377</v>
+        <v>533</v>
       </c>
       <c r="B84" s="314">
         <v>0.334618543993155</v>
       </c>
       <c r="C84" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D84" s="314"/>
       <c r="E84" s="317"/>
       <c r="F84" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="G84" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="H84" s="317"/>
       <c r="I84" s="314"/>
@@ -49545,26 +49710,26 @@
       <c r="L84" s="322"/>
       <c r="M84" s="322"/>
       <c r="N84" s="266" t="s">
-        <v>378</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="244" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
       <c r="B85" s="314">
         <v>0.35445609825668</v>
       </c>
       <c r="C85" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D85" s="314"/>
       <c r="E85" s="317"/>
       <c r="F85" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="G85" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="H85" s="317"/>
       <c r="I85" s="314"/>
@@ -49573,26 +49738,26 @@
       <c r="L85" s="322"/>
       <c r="M85" s="322"/>
       <c r="N85" s="266" t="s">
-        <v>378</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="244" t="s">
-        <v>380</v>
+        <v>536</v>
       </c>
       <c r="B86" s="314">
         <v>0.284504445147788</v>
       </c>
       <c r="C86" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D86" s="314"/>
       <c r="E86" s="317"/>
       <c r="F86" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="G86" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="H86" s="317"/>
       <c r="I86" s="314"/>
@@ -49601,26 +49766,26 @@
       <c r="L86" s="322"/>
       <c r="M86" s="322"/>
       <c r="N86" s="266" t="s">
-        <v>378</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="244" t="s">
-        <v>381</v>
+        <v>537</v>
       </c>
       <c r="B87" s="314">
         <v>0</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D87" s="314"/>
       <c r="E87" s="317"/>
       <c r="F87" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="G87" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="H87" s="317"/>
       <c r="I87" s="314"/>
@@ -49629,12 +49794,12 @@
       <c r="L87" s="322"/>
       <c r="M87" s="322"/>
       <c r="N87" s="266" t="s">
-        <v>378</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="267" t="s">
-        <v>382</v>
+        <v>538</v>
       </c>
       <c r="B88" s="308"/>
       <c r="C88" s="311"/>
@@ -49652,23 +49817,23 @@
     </row>
     <row r="89">
       <c r="A89" s="244" t="s">
-        <v>383</v>
+        <v>539</v>
       </c>
       <c r="B89" s="314">
         <v>0</v>
       </c>
       <c r="C89" s="237" t="s">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="D89" s="314"/>
       <c r="E89" s="317">
         <v>0</v>
       </c>
       <c r="F89" s="237" t="s">
-        <v>250</v>
+        <v>407</v>
       </c>
       <c r="G89" s="237" t="s">
-        <v>251</v>
+        <v>408</v>
       </c>
       <c r="H89" s="317"/>
       <c r="I89" s="314"/>
@@ -49685,7 +49850,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="266" t="s">
-        <v>384</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90"/>
@@ -49711,7 +49876,7 @@
     </row>
     <row r="93" ht="45" customHeight="1">
       <c r="A93" s="296" t="s">
-        <v>385</v>
+        <v>541</v>
       </c>
       <c r="B93" s="296"/>
       <c r="C93" s="296"/>
@@ -49734,7 +49899,7 @@
     <mergeCell ref="A93:N93"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="68" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -49745,7 +49910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M65"/>
   <sheetViews>
@@ -49754,7 +49919,7 @@
       <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="9.625" customWidth="1" style="233"/>
@@ -49790,7 +49955,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="233" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -51625,7 +51790,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="82" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="79" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -51636,7 +51801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -51645,7 +51810,7 @@
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="10.125" customWidth="1" style="233"/>
@@ -51682,7 +51847,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="233" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -51794,37 +51959,37 @@
         <v>1162.10021702029</v>
       </c>
       <c r="D8" s="317">
-        <v>1162.5645937191098</v>
+        <v>1162.56459376342</v>
       </c>
       <c r="E8" s="317">
-        <v>1162.8821503574402</v>
+        <v>1162.8821503268698</v>
       </c>
       <c r="F8" s="317">
-        <v>1163.03724987633</v>
+        <v>1163.03724983656</v>
       </c>
       <c r="G8" s="317">
-        <v>1163.03201705692</v>
+        <v>1163.03201711692</v>
       </c>
       <c r="H8" s="317">
-        <v>1162.76972091899</v>
+        <v>1162.76972091484</v>
       </c>
       <c r="I8" s="317">
-        <v>1162.24034119527</v>
+        <v>1162.2403411488801</v>
       </c>
       <c r="J8" s="317">
-        <v>1161.51191243633</v>
+        <v>1161.5119123442698</v>
       </c>
       <c r="K8" s="317">
-        <v>1160.5750157928298</v>
+        <v>1160.57501577356</v>
       </c>
       <c r="L8" s="324">
-        <v>1159.4436183401199</v>
+        <v>1159.44361828776</v>
       </c>
       <c r="M8" s="324">
-        <v>1158.13253043992</v>
+        <v>1158.13253042095</v>
       </c>
       <c r="N8" s="324">
-        <v>1156.65530973</v>
+        <v>1156.65530970789</v>
       </c>
     </row>
     <row r="9">
@@ -51838,37 +52003,37 @@
         <v>8738.75361129375</v>
       </c>
       <c r="D9" s="317">
-        <v>8742.24562815625</v>
+        <v>8742.2456284894288</v>
       </c>
       <c r="E9" s="317">
-        <v>8744.63358848819</v>
+        <v>8744.6335882583389</v>
       </c>
       <c r="F9" s="317">
-        <v>8745.7999048359216</v>
+        <v>8745.79990453688</v>
       </c>
       <c r="G9" s="317">
-        <v>8745.76055511481</v>
+        <v>8745.7605555659611</v>
       </c>
       <c r="H9" s="317">
-        <v>8743.78814233227</v>
+        <v>8743.78814230109</v>
       </c>
       <c r="I9" s="317">
-        <v>8739.80731614826</v>
+        <v>8739.80731579943</v>
       </c>
       <c r="J9" s="317">
-        <v>8734.32968233105</v>
+        <v>8734.329681638761</v>
       </c>
       <c r="K9" s="317">
-        <v>8727.284413078969</v>
+        <v>8727.284412934021</v>
       </c>
       <c r="L9" s="324">
-        <v>8718.776537913951</v>
+        <v>8718.77653752019</v>
       </c>
       <c r="M9" s="324">
-        <v>8708.9174276971116</v>
+        <v>8708.91742755447</v>
       </c>
       <c r="N9" s="324">
-        <v>8697.80903306432</v>
+        <v>8697.8090328980288</v>
       </c>
     </row>
     <row r="10">
@@ -51882,37 +52047,37 @@
         <v>9900.85382831404</v>
       </c>
       <c r="D10" s="325">
-        <v>9904.8102218753611</v>
+        <v>9904.8102222528487</v>
       </c>
       <c r="E10" s="325">
-        <v>9907.51573884563</v>
+        <v>9907.515738585209</v>
       </c>
       <c r="F10" s="325">
-        <v>9908.83715471225</v>
+        <v>9908.8371543734411</v>
       </c>
       <c r="G10" s="325">
-        <v>9908.7925721717311</v>
+        <v>9908.79257268288</v>
       </c>
       <c r="H10" s="325">
-        <v>9906.5578632512588</v>
+        <v>9906.55786321593</v>
       </c>
       <c r="I10" s="325">
-        <v>9902.04765734353</v>
+        <v>9902.04765694832</v>
       </c>
       <c r="J10" s="325">
-        <v>9895.84159476738</v>
+        <v>9895.84159398303</v>
       </c>
       <c r="K10" s="325">
-        <v>9887.8594288718</v>
+        <v>9887.85942870757</v>
       </c>
       <c r="L10" s="326">
-        <v>9878.22015625408</v>
+        <v>9878.22015580795</v>
       </c>
       <c r="M10" s="326">
-        <v>9867.0499581370386</v>
+        <v>9867.04995797542</v>
       </c>
       <c r="N10" s="326">
-        <v>9854.46434279433</v>
+        <v>9854.46434260591</v>
       </c>
     </row>
     <row r="11">
@@ -53399,37 +53564,37 @@
         <v>80969.8538283141</v>
       </c>
       <c r="D56" s="325">
-        <v>80973.8102218754</v>
+        <v>80973.8102222528</v>
       </c>
       <c r="E56" s="325">
-        <v>80976.5157388456</v>
+        <v>80976.5157385852</v>
       </c>
       <c r="F56" s="325">
-        <v>80977.8371547122</v>
+        <v>80977.83715437341</v>
       </c>
       <c r="G56" s="325">
-        <v>80977.7925721717</v>
+        <v>80977.7925726829</v>
       </c>
       <c r="H56" s="325">
-        <v>80975.557863251292</v>
+        <v>80975.557863215887</v>
       </c>
       <c r="I56" s="325">
-        <v>80971.0476573435</v>
+        <v>80971.0476569483</v>
       </c>
       <c r="J56" s="325">
-        <v>80964.841594767408</v>
+        <v>80964.841593983</v>
       </c>
       <c r="K56" s="325">
-        <v>80956.8594288718</v>
+        <v>80956.8594287076</v>
       </c>
       <c r="L56" s="326">
-        <v>80947.2201562541</v>
+        <v>80947.220155808</v>
       </c>
       <c r="M56" s="326">
-        <v>80936.04995813701</v>
+        <v>80936.0499579754</v>
       </c>
       <c r="N56" s="326">
-        <v>80923.4643427943</v>
+        <v>80923.4643426059</v>
       </c>
     </row>
     <row r="57">
@@ -55016,7 +55181,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="71" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -55027,7 +55192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -55035,7 +55200,7 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="8.125" customWidth="1" style="233"/>
@@ -55051,7 +55216,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="235" customFormat="1">
       <c r="A1" s="298" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="B1" s="299"/>
       <c r="C1" s="299"/>
@@ -55071,7 +55236,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="233" t="s">
-        <v>387</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="9.95" customHeight="1">
@@ -55222,7 +55387,7 @@
     <mergeCell ref="A4:M4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="94" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
@@ -55233,7 +55398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -55241,7 +55406,7 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.625" customWidth="1" style="244"/>
     <col min="2" max="2" width="7.625" customWidth="1" style="233"/>
@@ -55258,7 +55423,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="235" customFormat="1">
       <c r="A1" s="298" t="s">
-        <v>460</v>
+        <v>305</v>
       </c>
       <c r="B1" s="298"/>
       <c r="C1" s="298"/>
@@ -55279,7 +55444,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="233" t="s">
-        <v>2</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" ht="5.1" customHeight="1">
@@ -55854,7 +56019,7 @@
     <mergeCell ref="A5:N5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="95" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
+  <pageSetup scale="93" fitToWidth="2" fitToHeight="2" orientation="landscape"/>
   <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
     <oddHeader>&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;C&amp;"Ubuntu,Regular"&amp;8&amp;K00-049Thomas Ho Company Ltd.
